--- a/output/Indonesia_unformatted.xlsx
+++ b/output/Indonesia_unformatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="978">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2018,6 +2018,27 @@
     <t xml:space="preserve">175000</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-03-12T16:00:44.196Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency response to earthquake and tsunami in central Sulawesi-Indonesia - SHO (SM190034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM190034</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019-05-23T13:29:11.951Z</t>
   </si>
   <si>
@@ -2333,6 +2354,30 @@
     <t xml:space="preserve">750000</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-10-10T09:19:11.921Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency response to earthquake/tsunami Sulawesi-Indonesia (SM190364)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-04T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM190364</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019-10-29T14:04:24.960Z</t>
   </si>
   <si>
@@ -2459,6 +2504,24 @@
     <t xml:space="preserve">ZOA</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-11-04T09:40:02.363Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-10T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thematic Cross Sectoral - EAPRO (Indonesia Tsunami crisis) (SM1899100567)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM1899100567</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-01-15T16:30:52.031Z</t>
   </si>
   <si>
@@ -2685,6 +2748,48 @@
   </si>
   <si>
     <t xml:space="preserve">79909732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-25T13:41:14.452Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-21T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-21T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-02T17:13:51.598Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-26T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelter construction for earthquake and tsunami affected Families in the Central Sulawesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-02T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80293144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-02T17:21:09.175Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelter construction for earthquake and tsunami affected families in the Central Sulawesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78823435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-02T17:23:07.463Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45399687</t>
   </si>
   <si>
     <t xml:space="preserve">2019-07-18T12:47:48.905Z</t>
@@ -17308,28 +17413,26 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>188287</v>
+        <v>188133</v>
       </c>
       <c r="B76" t="n">
-        <v>398396</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2018</v>
-      </c>
+        <v>258947</v>
+      </c>
+      <c r="C76"/>
       <c r="D76" t="s">
         <v>663</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>664</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
+        <v>665</v>
+      </c>
+      <c r="H76" t="s">
         <v>664</v>
-      </c>
-      <c r="H76" t="s">
-        <v>665</v>
       </c>
       <c r="I76" t="s">
         <v>69</v>
@@ -17338,20 +17441,20 @@
         <v>70</v>
       </c>
       <c r="K76" t="s">
-        <v>440</v>
+        <v>89</v>
       </c>
       <c r="L76" t="s">
         <v>72</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>43613</v>
+        <v>43536</v>
       </c>
       <c r="P76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="s">
         <v>74</v>
@@ -17360,25 +17463,25 @@
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>441</v>
+        <v>666</v>
       </c>
       <c r="T76" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U76" t="s">
-        <v>442</v>
+        <v>667</v>
       </c>
       <c r="V76" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W76" t="s">
         <v>89</v>
       </c>
       <c r="X76" t="s">
-        <v>666</v>
+        <v>131</v>
       </c>
       <c r="Y76" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="Z76" t="s">
         <v>83</v>
@@ -17388,16 +17491,16 @@
       </c>
       <c r="AB76"/>
       <c r="AC76" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AD76" t="s">
         <v>89</v>
       </c>
       <c r="AE76" t="s">
-        <v>667</v>
+        <v>133</v>
       </c>
       <c r="AF76" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="AG76" t="s">
         <v>88</v>
@@ -17406,31 +17509,29 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AJ76" t="s">
         <v>90</v>
       </c>
       <c r="AK76" t="s">
-        <v>442</v>
+        <v>133</v>
       </c>
       <c r="AL76" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="AM76" t="s">
         <v>668</v>
       </c>
-      <c r="AN76" t="s">
-        <v>669</v>
-      </c>
+      <c r="AN76"/>
       <c r="AO76" t="s">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="AP76" t="s">
-        <v>450</v>
+        <v>89</v>
       </c>
       <c r="AQ76" t="s">
-        <v>451</v>
+        <v>89</v>
       </c>
       <c r="AR76" t="s">
         <v>97</v>
@@ -17439,7 +17540,7 @@
         <v>98</v>
       </c>
       <c r="AT76" t="s">
-        <v>89</v>
+        <v>669</v>
       </c>
       <c r="AU76" t="s">
         <v>89</v>
@@ -17447,9 +17548,7 @@
       <c r="AV76" t="s">
         <v>89</v>
       </c>
-      <c r="AW76" t="n">
-        <v>8.814</v>
-      </c>
+      <c r="AW76"/>
       <c r="AX76" t="s">
         <v>89</v>
       </c>
@@ -17457,7 +17556,7 @@
         <v>89</v>
       </c>
       <c r="AZ76" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA76" t="s">
         <v>89</v>
@@ -17482,7 +17581,7 @@
         <v>89</v>
       </c>
       <c r="BI76" s="1" t="n">
-        <v>43378</v>
+        <v>43532</v>
       </c>
       <c r="BJ76" t="s">
         <v>101</v>
@@ -17497,10 +17596,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>188377</v>
+        <v>188287</v>
       </c>
       <c r="B77" t="n">
-        <v>227273</v>
+        <v>398396</v>
       </c>
       <c r="C77" t="n">
         <v>2018</v>
@@ -17509,10 +17608,10 @@
         <v>670</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="G77" t="s">
         <v>671</v>
@@ -17527,7 +17626,7 @@
         <v>70</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="L77" t="s">
         <v>72</v>
@@ -17537,7 +17636,7 @@
         <v>73</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>43633</v>
+        <v>43613</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -17549,13 +17648,13 @@
         <v>75</v>
       </c>
       <c r="S77" t="s">
-        <v>673</v>
+        <v>441</v>
       </c>
       <c r="T77" t="s">
         <v>77</v>
       </c>
       <c r="U77" t="s">
-        <v>674</v>
+        <v>442</v>
       </c>
       <c r="V77" t="s">
         <v>79</v>
@@ -17564,10 +17663,10 @@
         <v>89</v>
       </c>
       <c r="X77" t="s">
-        <v>250</v>
+        <v>673</v>
       </c>
       <c r="Y77" t="s">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="Z77" t="s">
         <v>83</v>
@@ -17583,10 +17682,10 @@
         <v>89</v>
       </c>
       <c r="AE77" t="s">
-        <v>252</v>
+        <v>674</v>
       </c>
       <c r="AF77" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="AG77" t="s">
         <v>88</v>
@@ -17601,7 +17700,7 @@
         <v>90</v>
       </c>
       <c r="AK77" t="s">
-        <v>674</v>
+        <v>442</v>
       </c>
       <c r="AL77" t="s">
         <v>91</v>
@@ -17610,16 +17709,16 @@
         <v>675</v>
       </c>
       <c r="AN77" t="s">
-        <v>426</v>
+        <v>676</v>
       </c>
       <c r="AO77" t="s">
-        <v>676</v>
+        <v>449</v>
       </c>
       <c r="AP77" t="s">
-        <v>677</v>
+        <v>450</v>
       </c>
       <c r="AQ77" t="s">
-        <v>678</v>
+        <v>451</v>
       </c>
       <c r="AR77" t="s">
         <v>97</v>
@@ -17637,7 +17736,7 @@
         <v>89</v>
       </c>
       <c r="AW77" t="n">
-        <v>0.88</v>
+        <v>8.814</v>
       </c>
       <c r="AX77" t="s">
         <v>89</v>
@@ -17671,7 +17770,7 @@
         <v>89</v>
       </c>
       <c r="BI77" s="1" t="n">
-        <v>43374</v>
+        <v>43378</v>
       </c>
       <c r="BJ77" t="s">
         <v>101</v>
@@ -17686,28 +17785,28 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>188735</v>
+        <v>188377</v>
       </c>
       <c r="B78" t="n">
-        <v>50000</v>
+        <v>227273</v>
       </c>
       <c r="C78" t="n">
         <v>2018</v>
       </c>
       <c r="D78" t="s">
+        <v>677</v>
+      </c>
+      <c r="E78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" t="s">
+        <v>678</v>
+      </c>
+      <c r="H78" t="s">
         <v>679</v>
-      </c>
-      <c r="E78" t="s">
-        <v>680</v>
-      </c>
-      <c r="F78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s">
-        <v>681</v>
-      </c>
-      <c r="H78" t="s">
-        <v>682</v>
       </c>
       <c r="I78" t="s">
         <v>69</v>
@@ -17716,7 +17815,7 @@
         <v>70</v>
       </c>
       <c r="K78" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="L78" t="s">
         <v>72</v>
@@ -17726,10 +17825,10 @@
         <v>73</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>43662</v>
+        <v>43633</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="s">
         <v>74</v>
@@ -17738,13 +17837,13 @@
         <v>75</v>
       </c>
       <c r="S78" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="T78" t="s">
         <v>77</v>
       </c>
       <c r="U78" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="V78" t="s">
         <v>79</v>
@@ -17753,10 +17852,10 @@
         <v>89</v>
       </c>
       <c r="X78" t="s">
-        <v>642</v>
+        <v>250</v>
       </c>
       <c r="Y78" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="Z78" t="s">
         <v>83</v>
@@ -17772,10 +17871,10 @@
         <v>89</v>
       </c>
       <c r="AE78" t="s">
-        <v>643</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s">
-        <v>89</v>
+        <v>413</v>
       </c>
       <c r="AG78" t="s">
         <v>88</v>
@@ -17790,23 +17889,25 @@
         <v>90</v>
       </c>
       <c r="AK78" t="s">
+        <v>681</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>682</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>683</v>
+      </c>
+      <c r="AP78" t="s">
         <v>684</v>
       </c>
-      <c r="AL78" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM78" t="s">
+      <c r="AQ78" t="s">
         <v>685</v>
-      </c>
-      <c r="AN78"/>
-      <c r="AO78" t="s">
-        <v>686</v>
-      </c>
-      <c r="AP78" t="s">
-        <v>687</v>
-      </c>
-      <c r="AQ78" t="s">
-        <v>688</v>
       </c>
       <c r="AR78" t="s">
         <v>97</v>
@@ -17815,7 +17916,7 @@
         <v>98</v>
       </c>
       <c r="AT78" t="s">
-        <v>689</v>
+        <v>89</v>
       </c>
       <c r="AU78" t="s">
         <v>89</v>
@@ -17823,7 +17924,9 @@
       <c r="AV78" t="s">
         <v>89</v>
       </c>
-      <c r="AW78"/>
+      <c r="AW78" t="n">
+        <v>0.88</v>
+      </c>
       <c r="AX78" t="s">
         <v>89</v>
       </c>
@@ -17856,7 +17959,7 @@
         <v>89</v>
       </c>
       <c r="BI78" s="1" t="n">
-        <v>43465</v>
+        <v>43374</v>
       </c>
       <c r="BJ78" t="s">
         <v>101</v>
@@ -17871,63 +17974,65 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>192252</v>
+        <v>188735</v>
       </c>
       <c r="B79" t="n">
-        <v>44982</v>
-      </c>
-      <c r="C79"/>
+        <v>50000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2018</v>
+      </c>
       <c r="D79" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E79" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H79" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I79" t="s">
         <v>69</v>
       </c>
       <c r="J79" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K79" t="s">
-        <v>693</v>
+        <v>89</v>
       </c>
       <c r="L79" t="s">
         <v>72</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>43612</v>
+        <v>43662</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="R79" t="s">
         <v>75</v>
       </c>
       <c r="S79" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T79" t="s">
         <v>77</v>
       </c>
       <c r="U79" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="V79" t="s">
         <v>79</v>
@@ -17936,10 +18041,10 @@
         <v>89</v>
       </c>
       <c r="X79" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="Y79" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="Z79" t="s">
         <v>83</v>
@@ -17955,10 +18060,10 @@
         <v>89</v>
       </c>
       <c r="AE79" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="AF79" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="AG79" t="s">
         <v>88</v>
@@ -17973,25 +18078,23 @@
         <v>90</v>
       </c>
       <c r="AK79" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="AL79" t="s">
         <v>288</v>
       </c>
       <c r="AM79" t="s">
-        <v>696</v>
-      </c>
-      <c r="AN79" t="s">
-        <v>697</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="AN79"/>
       <c r="AO79" t="s">
-        <v>89</v>
+        <v>693</v>
       </c>
       <c r="AP79" t="s">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="AQ79" t="s">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="AR79" t="s">
         <v>97</v>
@@ -18000,7 +18103,7 @@
         <v>98</v>
       </c>
       <c r="AT79" t="s">
-        <v>89</v>
+        <v>696</v>
       </c>
       <c r="AU79" t="s">
         <v>89</v>
@@ -18008,9 +18111,7 @@
       <c r="AV79" t="s">
         <v>89</v>
       </c>
-      <c r="AW79" t="n">
-        <v>3.657</v>
-      </c>
+      <c r="AW79"/>
       <c r="AX79" t="s">
         <v>89</v>
       </c>
@@ -18043,7 +18144,7 @@
         <v>89</v>
       </c>
       <c r="BI79" s="1" t="n">
-        <v>43391</v>
+        <v>43465</v>
       </c>
       <c r="BJ79" t="s">
         <v>101</v>
@@ -18058,26 +18159,26 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>193747</v>
+        <v>192252</v>
       </c>
       <c r="B80" t="n">
-        <v>800801</v>
+        <v>44982</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
+        <v>697</v>
+      </c>
+      <c r="E80" t="s">
         <v>698</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" t="s">
         <v>699</v>
       </c>
-      <c r="F80" t="s">
-        <v>699</v>
-      </c>
-      <c r="G80" t="s">
-        <v>700</v>
-      </c>
       <c r="H80" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I80" t="s">
         <v>69</v>
@@ -18086,17 +18187,17 @@
         <v>113</v>
       </c>
       <c r="K80" t="s">
-        <v>308</v>
+        <v>700</v>
       </c>
       <c r="L80" t="s">
         <v>72</v>
       </c>
       <c r="M80"/>
       <c r="N80" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>43635</v>
+        <v>43612</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -18108,25 +18209,25 @@
         <v>75</v>
       </c>
       <c r="S80" t="s">
-        <v>557</v>
+        <v>701</v>
       </c>
       <c r="T80" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U80" t="s">
-        <v>558</v>
+        <v>702</v>
       </c>
       <c r="V80" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W80" t="s">
         <v>89</v>
       </c>
       <c r="X80" t="s">
-        <v>598</v>
+        <v>701</v>
       </c>
       <c r="Y80" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="Z80" t="s">
         <v>83</v>
@@ -18136,16 +18237,16 @@
       </c>
       <c r="AB80"/>
       <c r="AC80" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AD80" t="s">
         <v>89</v>
       </c>
       <c r="AE80" t="s">
-        <v>599</v>
+        <v>702</v>
       </c>
       <c r="AF80" t="s">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="AG80" t="s">
         <v>88</v>
@@ -18154,22 +18255,22 @@
         <v>89</v>
       </c>
       <c r="AI80" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s">
         <v>90</v>
       </c>
       <c r="AK80" t="s">
-        <v>558</v>
+        <v>702</v>
       </c>
       <c r="AL80" t="s">
         <v>288</v>
       </c>
       <c r="AM80" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AN80" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AO80" t="s">
         <v>89</v>
@@ -18187,7 +18288,7 @@
         <v>98</v>
       </c>
       <c r="AT80" t="s">
-        <v>704</v>
+        <v>89</v>
       </c>
       <c r="AU80" t="s">
         <v>89</v>
@@ -18196,7 +18297,7 @@
         <v>89</v>
       </c>
       <c r="AW80" t="n">
-        <v>0.999</v>
+        <v>3.657</v>
       </c>
       <c r="AX80" t="s">
         <v>89</v>
@@ -18205,7 +18306,7 @@
         <v>89</v>
       </c>
       <c r="AZ80" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA80" t="s">
         <v>89</v>
@@ -18230,7 +18331,7 @@
         <v>89</v>
       </c>
       <c r="BI80" s="1" t="n">
-        <v>43549</v>
+        <v>43391</v>
       </c>
       <c r="BJ80" t="s">
         <v>101</v>
@@ -18245,26 +18346,26 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>193748</v>
+        <v>193747</v>
       </c>
       <c r="B81" t="n">
-        <v>200200</v>
+        <v>800801</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
         <v>705</v>
       </c>
       <c r="E81" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F81" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="G81" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H81" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="I81" t="s">
         <v>69</v>
@@ -18310,10 +18411,10 @@
         <v>89</v>
       </c>
       <c r="X81" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="Y81" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="Z81" t="s">
         <v>83</v>
@@ -18329,10 +18430,10 @@
         <v>89</v>
       </c>
       <c r="AE81" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AF81" t="s">
-        <v>165</v>
+        <v>360</v>
       </c>
       <c r="AG81" t="s">
         <v>88</v>
@@ -18353,10 +18454,10 @@
         <v>288</v>
       </c>
       <c r="AM81" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="AN81" t="s">
-        <v>426</v>
+        <v>710</v>
       </c>
       <c r="AO81" t="s">
         <v>89</v>
@@ -18374,7 +18475,7 @@
         <v>98</v>
       </c>
       <c r="AT81" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="AU81" t="s">
         <v>89</v>
@@ -18432,26 +18533,26 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>193749</v>
+        <v>193748</v>
       </c>
       <c r="B82" t="n">
-        <v>198248</v>
+        <v>200200</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
+        <v>712</v>
+      </c>
+      <c r="E82" t="s">
+        <v>706</v>
+      </c>
+      <c r="F82" t="s">
+        <v>706</v>
+      </c>
+      <c r="G82" t="s">
+        <v>713</v>
+      </c>
+      <c r="H82" t="s">
         <v>708</v>
-      </c>
-      <c r="E82" t="s">
-        <v>524</v>
-      </c>
-      <c r="F82" t="s">
-        <v>524</v>
-      </c>
-      <c r="G82" t="s">
-        <v>709</v>
-      </c>
-      <c r="H82" t="s">
-        <v>701</v>
       </c>
       <c r="I82" t="s">
         <v>69</v>
@@ -18463,7 +18564,7 @@
         <v>308</v>
       </c>
       <c r="L82" t="s">
-        <v>710</v>
+        <v>72</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="s">
@@ -18497,7 +18598,7 @@
         <v>89</v>
       </c>
       <c r="X82" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y82" t="s">
         <v>163</v>
@@ -18516,7 +18617,7 @@
         <v>89</v>
       </c>
       <c r="AE82" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AF82" t="s">
         <v>165</v>
@@ -18540,10 +18641,10 @@
         <v>288</v>
       </c>
       <c r="AM82" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="AN82" t="s">
-        <v>711</v>
+        <v>426</v>
       </c>
       <c r="AO82" t="s">
         <v>89</v>
@@ -18561,7 +18662,7 @@
         <v>98</v>
       </c>
       <c r="AT82" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AU82" t="s">
         <v>89</v>
@@ -18570,7 +18671,7 @@
         <v>89</v>
       </c>
       <c r="AW82" t="n">
-        <v>0.987</v>
+        <v>0.999</v>
       </c>
       <c r="AX82" t="s">
         <v>89</v>
@@ -18604,7 +18705,7 @@
         <v>89</v>
       </c>
       <c r="BI82" s="1" t="n">
-        <v>43479</v>
+        <v>43549</v>
       </c>
       <c r="BJ82" t="s">
         <v>101</v>
@@ -18619,75 +18720,75 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>195015</v>
+        <v>193749</v>
       </c>
       <c r="B83" t="n">
-        <v>1600000</v>
+        <v>198248</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>524</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="G83" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H83" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="I83" t="s">
         <v>69</v>
       </c>
       <c r="J83" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="K83" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="L83" t="s">
-        <v>72</v>
+        <v>717</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>43650</v>
+        <v>43635</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="R83" t="s">
         <v>75</v>
       </c>
       <c r="S83" t="s">
-        <v>716</v>
+        <v>557</v>
       </c>
       <c r="T83" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U83" t="s">
-        <v>717</v>
+        <v>558</v>
       </c>
       <c r="V83" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W83" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X83" t="s">
-        <v>131</v>
+        <v>559</v>
       </c>
       <c r="Y83" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="Z83" t="s">
         <v>83</v>
@@ -18697,16 +18798,16 @@
       </c>
       <c r="AB83"/>
       <c r="AC83" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AD83" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE83" t="s">
-        <v>133</v>
+        <v>560</v>
       </c>
       <c r="AF83" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="AG83" t="s">
         <v>88</v>
@@ -18715,21 +18816,23 @@
         <v>89</v>
       </c>
       <c r="AI83" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AJ83" t="s">
         <v>90</v>
       </c>
       <c r="AK83" t="s">
-        <v>717</v>
+        <v>558</v>
       </c>
       <c r="AL83" t="s">
         <v>288</v>
       </c>
       <c r="AM83" t="s">
+        <v>709</v>
+      </c>
+      <c r="AN83" t="s">
         <v>718</v>
       </c>
-      <c r="AN83"/>
       <c r="AO83" t="s">
         <v>89</v>
       </c>
@@ -18754,7 +18857,9 @@
       <c r="AV83" t="s">
         <v>89</v>
       </c>
-      <c r="AW83"/>
+      <c r="AW83" t="n">
+        <v>0.987</v>
+      </c>
       <c r="AX83" t="s">
         <v>89</v>
       </c>
@@ -18775,10 +18880,10 @@
         <v>89</v>
       </c>
       <c r="BE83" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BF83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BG83" t="s">
         <v>89</v>
@@ -18787,14 +18892,12 @@
         <v>89</v>
       </c>
       <c r="BI83" s="1" t="n">
-        <v>43381</v>
+        <v>43479</v>
       </c>
       <c r="BJ83" t="s">
         <v>101</v>
       </c>
-      <c r="BK83" t="s">
-        <v>101</v>
-      </c>
+      <c r="BK83"/>
       <c r="BL83" t="b">
         <v>0</v>
       </c>
@@ -18804,28 +18907,26 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>195501</v>
+        <v>195015</v>
       </c>
       <c r="B84" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2018</v>
-      </c>
+        <v>1600000</v>
+      </c>
+      <c r="C84"/>
       <c r="D84" t="s">
         <v>720</v>
       </c>
       <c r="E84" t="s">
-        <v>680</v>
+        <v>238</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="G84" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="H84" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I84" t="s">
         <v>69</v>
@@ -18841,10 +18942,10 @@
       </c>
       <c r="M84"/>
       <c r="N84" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>43662</v>
+        <v>43650</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -18856,25 +18957,25 @@
         <v>75</v>
       </c>
       <c r="S84" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="T84" t="s">
         <v>77</v>
       </c>
       <c r="U84" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="V84" t="s">
         <v>79</v>
       </c>
       <c r="W84" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X84" t="s">
-        <v>642</v>
+        <v>131</v>
       </c>
       <c r="Y84" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Z84" t="s">
         <v>83</v>
@@ -18887,13 +18988,13 @@
         <v>77</v>
       </c>
       <c r="AD84" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE84" t="s">
-        <v>643</v>
+        <v>133</v>
       </c>
       <c r="AF84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG84" t="s">
         <v>88</v>
@@ -18908,23 +19009,23 @@
         <v>90</v>
       </c>
       <c r="AK84" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="AL84" t="s">
         <v>288</v>
       </c>
       <c r="AM84" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="AN84"/>
       <c r="AO84" t="s">
-        <v>686</v>
+        <v>89</v>
       </c>
       <c r="AP84" t="s">
-        <v>687</v>
+        <v>89</v>
       </c>
       <c r="AQ84" t="s">
-        <v>688</v>
+        <v>89</v>
       </c>
       <c r="AR84" t="s">
         <v>97</v>
@@ -18933,7 +19034,7 @@
         <v>98</v>
       </c>
       <c r="AT84" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="AU84" t="s">
         <v>89</v>
@@ -18949,7 +19050,7 @@
         <v>89</v>
       </c>
       <c r="AZ84" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA84" t="s">
         <v>89</v>
@@ -18962,10 +19063,10 @@
         <v>89</v>
       </c>
       <c r="BE84" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BF84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BG84" t="s">
         <v>89</v>
@@ -18974,12 +19075,14 @@
         <v>89</v>
       </c>
       <c r="BI84" s="1" t="n">
-        <v>43465</v>
+        <v>43381</v>
       </c>
       <c r="BJ84" t="s">
         <v>101</v>
       </c>
-      <c r="BK84"/>
+      <c r="BK84" t="s">
+        <v>101</v>
+      </c>
       <c r="BL84" t="b">
         <v>0</v>
       </c>
@@ -18989,35 +19092,37 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>195797</v>
+        <v>195501</v>
       </c>
       <c r="B85" t="n">
-        <v>195886</v>
-      </c>
-      <c r="C85"/>
+        <v>50000</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2018</v>
+      </c>
       <c r="D85" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E85" t="s">
-        <v>725</v>
+        <v>687</v>
       </c>
       <c r="F85" t="s">
-        <v>725</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
       <c r="H85" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I85" t="s">
         <v>69</v>
       </c>
       <c r="J85" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K85" t="s">
-        <v>308</v>
+        <v>89</v>
       </c>
       <c r="L85" t="s">
         <v>72</v>
@@ -19027,37 +19132,37 @@
         <v>73</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>43668</v>
+        <v>43662</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
       </c>
       <c r="Q85" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="R85" t="s">
         <v>75</v>
       </c>
       <c r="S85" t="s">
-        <v>557</v>
+        <v>690</v>
       </c>
       <c r="T85" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U85" t="s">
-        <v>558</v>
+        <v>691</v>
       </c>
       <c r="V85" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W85" t="s">
         <v>89</v>
       </c>
       <c r="X85" t="s">
-        <v>241</v>
+        <v>642</v>
       </c>
       <c r="Y85" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="Z85" t="s">
         <v>83</v>
@@ -19067,16 +19172,16 @@
       </c>
       <c r="AB85"/>
       <c r="AC85" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AD85" t="s">
         <v>89</v>
       </c>
       <c r="AE85" t="s">
-        <v>243</v>
+        <v>643</v>
       </c>
       <c r="AF85" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="AG85" t="s">
         <v>88</v>
@@ -19085,31 +19190,29 @@
         <v>89</v>
       </c>
       <c r="AI85" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AJ85" t="s">
         <v>90</v>
       </c>
       <c r="AK85" t="s">
-        <v>558</v>
+        <v>691</v>
       </c>
       <c r="AL85" t="s">
         <v>288</v>
       </c>
       <c r="AM85" t="s">
-        <v>728</v>
-      </c>
-      <c r="AN85" t="s">
-        <v>426</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="AN85"/>
       <c r="AO85" t="s">
-        <v>89</v>
+        <v>693</v>
       </c>
       <c r="AP85" t="s">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="AQ85" t="s">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="AR85" t="s">
         <v>97</v>
@@ -19118,7 +19221,7 @@
         <v>98</v>
       </c>
       <c r="AT85" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AU85" t="s">
         <v>89</v>
@@ -19126,9 +19229,7 @@
       <c r="AV85" t="s">
         <v>89</v>
       </c>
-      <c r="AW85" t="n">
-        <v>1.021</v>
-      </c>
+      <c r="AW85"/>
       <c r="AX85" t="s">
         <v>89</v>
       </c>
@@ -19136,7 +19237,7 @@
         <v>89</v>
       </c>
       <c r="AZ85" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA85" t="s">
         <v>89</v>
@@ -19161,7 +19262,7 @@
         <v>89</v>
       </c>
       <c r="BI85" s="1" t="n">
-        <v>43607</v>
+        <v>43465</v>
       </c>
       <c r="BJ85" t="s">
         <v>101</v>
@@ -19176,26 +19277,26 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>195802</v>
+        <v>195797</v>
       </c>
       <c r="B86" t="n">
-        <v>614125</v>
+        <v>195886</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E86" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F86" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G86" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H86" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="I86" t="s">
         <v>69</v>
@@ -19241,10 +19342,10 @@
         <v>89</v>
       </c>
       <c r="X86" t="s">
-        <v>559</v>
+        <v>241</v>
       </c>
       <c r="Y86" t="s">
-        <v>733</v>
+        <v>163</v>
       </c>
       <c r="Z86" t="s">
         <v>83</v>
@@ -19260,10 +19361,10 @@
         <v>89</v>
       </c>
       <c r="AE86" t="s">
-        <v>560</v>
+        <v>243</v>
       </c>
       <c r="AF86" t="s">
-        <v>734</v>
+        <v>165</v>
       </c>
       <c r="AG86" t="s">
         <v>88</v>
@@ -19284,10 +19385,10 @@
         <v>288</v>
       </c>
       <c r="AM86" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="AN86" t="s">
-        <v>735</v>
+        <v>426</v>
       </c>
       <c r="AO86" t="s">
         <v>89</v>
@@ -19314,7 +19415,7 @@
         <v>89</v>
       </c>
       <c r="AW86" t="n">
-        <v>0.977</v>
+        <v>1.021</v>
       </c>
       <c r="AX86" t="s">
         <v>89</v>
@@ -19348,7 +19449,7 @@
         <v>89</v>
       </c>
       <c r="BI86" s="1" t="n">
-        <v>43650</v>
+        <v>43607</v>
       </c>
       <c r="BJ86" t="s">
         <v>101</v>
@@ -19363,10 +19464,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>195806</v>
+        <v>195802</v>
       </c>
       <c r="B87" t="n">
-        <v>195886</v>
+        <v>614125</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
@@ -19382,7 +19483,7 @@
         <v>739</v>
       </c>
       <c r="H87" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="I87" t="s">
         <v>69</v>
@@ -19394,7 +19495,7 @@
         <v>308</v>
       </c>
       <c r="L87" t="s">
-        <v>710</v>
+        <v>72</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="s">
@@ -19428,10 +19529,10 @@
         <v>89</v>
       </c>
       <c r="X87" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="Y87" t="s">
-        <v>163</v>
+        <v>740</v>
       </c>
       <c r="Z87" t="s">
         <v>83</v>
@@ -19447,10 +19548,10 @@
         <v>89</v>
       </c>
       <c r="AE87" t="s">
-        <v>608</v>
+        <v>560</v>
       </c>
       <c r="AF87" t="s">
-        <v>165</v>
+        <v>741</v>
       </c>
       <c r="AG87" t="s">
         <v>88</v>
@@ -19471,10 +19572,10 @@
         <v>288</v>
       </c>
       <c r="AM87" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="AN87" t="s">
-        <v>426</v>
+        <v>742</v>
       </c>
       <c r="AO87" t="s">
         <v>89</v>
@@ -19492,7 +19593,7 @@
         <v>98</v>
       </c>
       <c r="AT87" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AU87" t="s">
         <v>89</v>
@@ -19501,7 +19602,7 @@
         <v>89</v>
       </c>
       <c r="AW87" t="n">
-        <v>1.021</v>
+        <v>0.977</v>
       </c>
       <c r="AX87" t="s">
         <v>89</v>
@@ -19535,7 +19636,7 @@
         <v>89</v>
       </c>
       <c r="BI87" s="1" t="n">
-        <v>43602</v>
+        <v>43650</v>
       </c>
       <c r="BJ87" t="s">
         <v>101</v>
@@ -19550,75 +19651,75 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>197029</v>
+        <v>195806</v>
       </c>
       <c r="B88" t="n">
-        <v>67638</v>
+        <v>195886</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E88" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F88" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G88" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H88" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="I88" t="s">
         <v>69</v>
       </c>
       <c r="J88" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="K88" t="s">
-        <v>745</v>
+        <v>308</v>
       </c>
       <c r="L88" t="s">
-        <v>72</v>
+        <v>717</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>43697</v>
+        <v>43668</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="R88" t="s">
         <v>75</v>
       </c>
       <c r="S88" t="s">
-        <v>746</v>
+        <v>557</v>
       </c>
       <c r="T88" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U88" t="s">
-        <v>747</v>
+        <v>558</v>
       </c>
       <c r="V88" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W88" t="s">
         <v>89</v>
       </c>
       <c r="X88" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="Y88" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="Z88" t="s">
         <v>83</v>
@@ -19628,16 +19729,16 @@
       </c>
       <c r="AB88"/>
       <c r="AC88" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AD88" t="s">
         <v>89</v>
       </c>
       <c r="AE88" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="AF88" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="AG88" t="s">
         <v>88</v>
@@ -19646,31 +19747,31 @@
         <v>89</v>
       </c>
       <c r="AI88" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AJ88" t="s">
         <v>90</v>
       </c>
       <c r="AK88" t="s">
-        <v>747</v>
+        <v>558</v>
       </c>
       <c r="AL88" t="s">
         <v>288</v>
       </c>
       <c r="AM88" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="AN88" t="s">
-        <v>749</v>
+        <v>426</v>
       </c>
       <c r="AO88" t="s">
-        <v>750</v>
+        <v>89</v>
       </c>
       <c r="AP88" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="AQ88" t="s">
-        <v>752</v>
+        <v>89</v>
       </c>
       <c r="AR88" t="s">
         <v>97</v>
@@ -19679,7 +19780,7 @@
         <v>98</v>
       </c>
       <c r="AT88" t="s">
-        <v>89</v>
+        <v>747</v>
       </c>
       <c r="AU88" t="s">
         <v>89</v>
@@ -19688,7 +19789,7 @@
         <v>89</v>
       </c>
       <c r="AW88" t="n">
-        <v>14680</v>
+        <v>1.021</v>
       </c>
       <c r="AX88" t="s">
         <v>89</v>
@@ -19722,7 +19823,7 @@
         <v>89</v>
       </c>
       <c r="BI88" s="1" t="n">
-        <v>43373</v>
+        <v>43602</v>
       </c>
       <c r="BJ88" t="s">
         <v>101</v>
@@ -19737,26 +19838,26 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>197033</v>
+        <v>197029</v>
       </c>
       <c r="B89" t="n">
-        <v>998004</v>
+        <v>67638</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E89" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F89" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G89" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H89" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="I89" t="s">
         <v>69</v>
@@ -19765,7 +19866,7 @@
         <v>70</v>
       </c>
       <c r="K89" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L89" t="s">
         <v>72</v>
@@ -19787,13 +19888,13 @@
         <v>75</v>
       </c>
       <c r="S89" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="T89" t="s">
         <v>77</v>
       </c>
       <c r="U89" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="V89" t="s">
         <v>79</v>
@@ -19802,7 +19903,7 @@
         <v>89</v>
       </c>
       <c r="X89" t="s">
-        <v>250</v>
+        <v>642</v>
       </c>
       <c r="Y89" t="s">
         <v>89</v>
@@ -19821,7 +19922,7 @@
         <v>89</v>
       </c>
       <c r="AE89" t="s">
-        <v>252</v>
+        <v>643</v>
       </c>
       <c r="AF89" t="s">
         <v>89</v>
@@ -19839,25 +19940,25 @@
         <v>90</v>
       </c>
       <c r="AK89" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="AL89" t="s">
         <v>288</v>
       </c>
       <c r="AM89" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="AN89" t="s">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="AO89" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="AP89" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="AQ89" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="AR89" t="s">
         <v>97</v>
@@ -19875,7 +19976,7 @@
         <v>89</v>
       </c>
       <c r="AW89" t="n">
-        <v>1.503</v>
+        <v>14680</v>
       </c>
       <c r="AX89" t="s">
         <v>89</v>
@@ -19884,7 +19985,7 @@
         <v>89</v>
       </c>
       <c r="AZ89" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA89" t="s">
         <v>89</v>
@@ -19924,26 +20025,26 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>197034</v>
+        <v>197033</v>
       </c>
       <c r="B90" t="n">
-        <v>105059</v>
+        <v>998004</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E90" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F90" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G90" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H90" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="I90" t="s">
         <v>69</v>
@@ -19952,7 +20053,7 @@
         <v>70</v>
       </c>
       <c r="K90" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="L90" t="s">
         <v>72</v>
@@ -19974,13 +20075,13 @@
         <v>75</v>
       </c>
       <c r="S90" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="T90" t="s">
         <v>77</v>
       </c>
       <c r="U90" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="V90" t="s">
         <v>79</v>
@@ -19989,10 +20090,10 @@
         <v>89</v>
       </c>
       <c r="X90" t="s">
-        <v>642</v>
+        <v>250</v>
       </c>
       <c r="Y90" t="s">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="Z90" t="s">
         <v>83</v>
@@ -20008,10 +20109,10 @@
         <v>89</v>
       </c>
       <c r="AE90" t="s">
-        <v>643</v>
+        <v>252</v>
       </c>
       <c r="AF90" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="AG90" t="s">
         <v>88</v>
@@ -20026,25 +20127,25 @@
         <v>90</v>
       </c>
       <c r="AK90" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="AL90" t="s">
         <v>288</v>
       </c>
       <c r="AM90" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="AN90" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>757</v>
+      </c>
+      <c r="AP90" t="s">
         <v>758</v>
       </c>
-      <c r="AO90" t="s">
-        <v>750</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>751</v>
-      </c>
       <c r="AQ90" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="AR90" t="s">
         <v>97</v>
@@ -20071,7 +20172,7 @@
         <v>89</v>
       </c>
       <c r="AZ90" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA90" t="s">
         <v>89</v>
@@ -20111,26 +20212,26 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>197035</v>
+        <v>197034</v>
       </c>
       <c r="B91" t="n">
-        <v>66534</v>
+        <v>105059</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E91" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F91" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G91" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="H91" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="I91" t="s">
         <v>69</v>
@@ -20139,7 +20240,7 @@
         <v>70</v>
       </c>
       <c r="K91" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="L91" t="s">
         <v>72</v>
@@ -20161,13 +20262,13 @@
         <v>75</v>
       </c>
       <c r="S91" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="T91" t="s">
         <v>77</v>
       </c>
       <c r="U91" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="V91" t="s">
         <v>79</v>
@@ -20176,10 +20277,10 @@
         <v>89</v>
       </c>
       <c r="X91" t="s">
-        <v>761</v>
+        <v>642</v>
       </c>
       <c r="Y91" t="s">
-        <v>762</v>
+        <v>411</v>
       </c>
       <c r="Z91" t="s">
         <v>83</v>
@@ -20195,10 +20296,10 @@
         <v>89</v>
       </c>
       <c r="AE91" t="s">
-        <v>763</v>
+        <v>643</v>
       </c>
       <c r="AF91" t="s">
-        <v>764</v>
+        <v>413</v>
       </c>
       <c r="AG91" t="s">
         <v>88</v>
@@ -20213,25 +20314,25 @@
         <v>90</v>
       </c>
       <c r="AK91" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="AL91" t="s">
         <v>288</v>
       </c>
       <c r="AM91" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="AN91" t="s">
-        <v>371</v>
+        <v>765</v>
       </c>
       <c r="AO91" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="AP91" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="AQ91" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="AR91" t="s">
         <v>97</v>
@@ -20258,7 +20359,7 @@
         <v>89</v>
       </c>
       <c r="AZ91" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA91" t="s">
         <v>89</v>
@@ -20298,26 +20399,26 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>197041</v>
+        <v>197035</v>
       </c>
       <c r="B92" t="n">
-        <v>499002</v>
+        <v>66534</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E92" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F92" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G92" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H92" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="I92" t="s">
         <v>69</v>
@@ -20326,7 +20427,7 @@
         <v>70</v>
       </c>
       <c r="K92" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="L92" t="s">
         <v>72</v>
@@ -20348,25 +20449,25 @@
         <v>75</v>
       </c>
       <c r="S92" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="T92" t="s">
         <v>77</v>
       </c>
       <c r="U92" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="V92" t="s">
         <v>79</v>
       </c>
       <c r="W92" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X92" t="s">
-        <v>131</v>
+        <v>768</v>
       </c>
       <c r="Y92" t="s">
-        <v>163</v>
+        <v>769</v>
       </c>
       <c r="Z92" t="s">
         <v>83</v>
@@ -20379,13 +20480,13 @@
         <v>77</v>
       </c>
       <c r="AD92" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE92" t="s">
-        <v>133</v>
+        <v>770</v>
       </c>
       <c r="AF92" t="s">
-        <v>165</v>
+        <v>771</v>
       </c>
       <c r="AG92" t="s">
         <v>88</v>
@@ -20400,25 +20501,25 @@
         <v>90</v>
       </c>
       <c r="AK92" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="AL92" t="s">
         <v>288</v>
       </c>
       <c r="AM92" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="AN92" t="s">
-        <v>767</v>
+        <v>371</v>
       </c>
       <c r="AO92" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="AP92" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="AQ92" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="AR92" t="s">
         <v>97</v>
@@ -20475,9 +20576,7 @@
       <c r="BJ92" t="s">
         <v>101</v>
       </c>
-      <c r="BK92" t="s">
-        <v>101</v>
-      </c>
+      <c r="BK92"/>
       <c r="BL92" t="b">
         <v>0</v>
       </c>
@@ -20487,37 +20586,35 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>200379</v>
+        <v>197041</v>
       </c>
       <c r="B93" t="n">
-        <v>166447</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2018</v>
-      </c>
+        <v>499002</v>
+      </c>
+      <c r="C93"/>
       <c r="D93" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E93" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="F93" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="G93" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H93" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="I93" t="s">
-        <v>772</v>
+        <v>69</v>
       </c>
       <c r="J93" t="s">
         <v>70</v>
       </c>
       <c r="K93" t="s">
-        <v>185</v>
+        <v>762</v>
       </c>
       <c r="L93" t="s">
         <v>72</v>
@@ -20527,7 +20624,7 @@
         <v>114</v>
       </c>
       <c r="O93" s="1" t="n">
-        <v>43769</v>
+        <v>43697</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -20539,25 +20636,25 @@
         <v>75</v>
       </c>
       <c r="S93" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="T93" t="s">
         <v>77</v>
       </c>
       <c r="U93" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="V93" t="s">
         <v>79</v>
       </c>
       <c r="W93" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X93" t="s">
-        <v>775</v>
+        <v>131</v>
       </c>
       <c r="Y93" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="Z93" t="s">
         <v>83</v>
@@ -20570,13 +20667,13 @@
         <v>77</v>
       </c>
       <c r="AD93" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE93" t="s">
-        <v>776</v>
+        <v>133</v>
       </c>
       <c r="AF93" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="AG93" t="s">
         <v>88</v>
@@ -20591,25 +20688,25 @@
         <v>90</v>
       </c>
       <c r="AK93" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="AL93" t="s">
         <v>288</v>
       </c>
       <c r="AM93" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="AN93" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="AO93" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="AP93" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="AQ93" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="AR93" t="s">
         <v>97</v>
@@ -20627,7 +20724,7 @@
         <v>89</v>
       </c>
       <c r="AW93" t="n">
-        <v>0.914</v>
+        <v>1.503</v>
       </c>
       <c r="AX93" t="s">
         <v>89</v>
@@ -20636,7 +20733,7 @@
         <v>89</v>
       </c>
       <c r="AZ93" t="s">
-        <v>782</v>
+        <v>563</v>
       </c>
       <c r="BA93" t="s">
         <v>89</v>
@@ -20661,12 +20758,14 @@
         <v>89</v>
       </c>
       <c r="BI93" s="1" t="n">
-        <v>43379</v>
+        <v>43373</v>
       </c>
       <c r="BJ93" t="s">
         <v>101</v>
       </c>
-      <c r="BK93"/>
+      <c r="BK93" t="s">
+        <v>101</v>
+      </c>
       <c r="BL93" t="b">
         <v>0</v>
       </c>
@@ -20676,28 +20775,26 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>200780</v>
+        <v>198896</v>
       </c>
       <c r="B94" t="n">
-        <v>534613</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2018</v>
-      </c>
+        <v>110505</v>
+      </c>
+      <c r="C94"/>
       <c r="D94" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="E94" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="F94" t="s">
-        <v>769</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="H94" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="I94" t="s">
         <v>69</v>
@@ -20706,19 +20803,17 @@
         <v>70</v>
       </c>
       <c r="K94" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s">
         <v>72</v>
       </c>
-      <c r="M94" t="n">
-        <v>200379</v>
-      </c>
+      <c r="M94"/>
       <c r="N94" t="s">
         <v>114</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>43769</v>
+        <v>43748</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -20730,22 +20825,22 @@
         <v>75</v>
       </c>
       <c r="S94" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="T94" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U94" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="V94" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W94" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X94" t="s">
-        <v>785</v>
+        <v>131</v>
       </c>
       <c r="Y94" t="s">
         <v>89</v>
@@ -20758,13 +20853,13 @@
       </c>
       <c r="AB94"/>
       <c r="AC94" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AD94" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE94" t="s">
-        <v>786</v>
+        <v>133</v>
       </c>
       <c r="AF94" t="s">
         <v>89</v>
@@ -20776,31 +20871,29 @@
         <v>89</v>
       </c>
       <c r="AI94" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AJ94" t="s">
         <v>90</v>
       </c>
       <c r="AK94" t="s">
-        <v>786</v>
+        <v>133</v>
       </c>
       <c r="AL94" t="s">
         <v>288</v>
       </c>
       <c r="AM94" t="s">
-        <v>777</v>
-      </c>
-      <c r="AN94" t="s">
-        <v>787</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="AN94"/>
       <c r="AO94" t="s">
-        <v>779</v>
+        <v>89</v>
       </c>
       <c r="AP94" t="s">
-        <v>780</v>
+        <v>89</v>
       </c>
       <c r="AQ94" t="s">
-        <v>781</v>
+        <v>89</v>
       </c>
       <c r="AR94" t="s">
         <v>97</v>
@@ -20809,7 +20902,7 @@
         <v>98</v>
       </c>
       <c r="AT94" t="s">
-        <v>89</v>
+        <v>782</v>
       </c>
       <c r="AU94" t="s">
         <v>89</v>
@@ -20817,9 +20910,7 @@
       <c r="AV94" t="s">
         <v>89</v>
       </c>
-      <c r="AW94" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="AW94"/>
       <c r="AX94" t="s">
         <v>89</v>
       </c>
@@ -20827,7 +20918,7 @@
         <v>89</v>
       </c>
       <c r="AZ94" t="s">
-        <v>782</v>
+        <v>89</v>
       </c>
       <c r="BA94" t="s">
         <v>89</v>
@@ -20852,14 +20943,12 @@
         <v>89</v>
       </c>
       <c r="BI94" s="1" t="n">
-        <v>43379</v>
+        <v>43678</v>
       </c>
       <c r="BJ94" t="s">
         <v>101</v>
       </c>
-      <c r="BK94" t="s">
-        <v>101</v>
-      </c>
+      <c r="BK94"/>
       <c r="BL94" t="b">
         <v>0</v>
       </c>
@@ -20869,31 +20958,31 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>200782</v>
+        <v>200379</v>
       </c>
       <c r="B95" t="n">
-        <v>588076</v>
+        <v>166447</v>
       </c>
       <c r="C95" t="n">
         <v>2018</v>
       </c>
       <c r="D95" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E95" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F95" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G95" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H95" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I95" t="s">
-        <v>69</v>
+        <v>787</v>
       </c>
       <c r="J95" t="s">
         <v>70</v>
@@ -20904,9 +20993,7 @@
       <c r="L95" t="s">
         <v>72</v>
       </c>
-      <c r="M95" t="n">
-        <v>200379</v>
-      </c>
+      <c r="M95"/>
       <c r="N95" t="s">
         <v>114</v>
       </c>
@@ -20923,22 +21010,22 @@
         <v>75</v>
       </c>
       <c r="S95" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T95" t="s">
         <v>77</v>
       </c>
       <c r="U95" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V95" t="s">
         <v>79</v>
       </c>
       <c r="W95" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X95" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Y95" t="s">
         <v>89</v>
@@ -20954,10 +21041,10 @@
         <v>77</v>
       </c>
       <c r="AD95" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE95" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF95" t="s">
         <v>89</v>
@@ -20975,25 +21062,25 @@
         <v>90</v>
       </c>
       <c r="AK95" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AL95" t="s">
         <v>288</v>
       </c>
       <c r="AM95" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN95" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AO95" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="AP95" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="AQ95" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR95" t="s">
         <v>97</v>
@@ -21011,7 +21098,7 @@
         <v>89</v>
       </c>
       <c r="AW95" t="n">
-        <v>0.9</v>
+        <v>0.914</v>
       </c>
       <c r="AX95" t="s">
         <v>89</v>
@@ -21020,7 +21107,7 @@
         <v>89</v>
       </c>
       <c r="AZ95" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA95" t="s">
         <v>89</v>
@@ -21050,9 +21137,7 @@
       <c r="BJ95" t="s">
         <v>101</v>
       </c>
-      <c r="BK95" t="s">
-        <v>101</v>
-      </c>
+      <c r="BK95"/>
       <c r="BL95" t="b">
         <v>0</v>
       </c>
@@ -21062,28 +21147,28 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>200785</v>
+        <v>200780</v>
       </c>
       <c r="B96" t="n">
-        <v>533111</v>
+        <v>534613</v>
       </c>
       <c r="C96" t="n">
         <v>2018</v>
       </c>
       <c r="D96" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="E96" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F96" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G96" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H96" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I96" t="s">
         <v>69</v>
@@ -21116,13 +21201,13 @@
         <v>75</v>
       </c>
       <c r="S96" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T96" t="s">
         <v>77</v>
       </c>
       <c r="U96" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V96" t="s">
         <v>79</v>
@@ -21131,7 +21216,7 @@
         <v>80</v>
       </c>
       <c r="X96" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="Y96" t="s">
         <v>89</v>
@@ -21150,7 +21235,7 @@
         <v>85</v>
       </c>
       <c r="AE96" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="AF96" t="s">
         <v>89</v>
@@ -21168,25 +21253,25 @@
         <v>90</v>
       </c>
       <c r="AK96" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="AL96" t="s">
         <v>288</v>
       </c>
       <c r="AM96" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN96" t="s">
+        <v>802</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>794</v>
+      </c>
+      <c r="AP96" t="s">
         <v>795</v>
       </c>
-      <c r="AO96" t="s">
-        <v>779</v>
-      </c>
-      <c r="AP96" t="s">
-        <v>780</v>
-      </c>
       <c r="AQ96" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR96" t="s">
         <v>97</v>
@@ -21213,7 +21298,7 @@
         <v>89</v>
       </c>
       <c r="AZ96" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA96" t="s">
         <v>89</v>
@@ -21255,28 +21340,28 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>200786</v>
+        <v>200782</v>
       </c>
       <c r="B97" t="n">
-        <v>427691</v>
+        <v>588076</v>
       </c>
       <c r="C97" t="n">
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="E97" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F97" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G97" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H97" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I97" t="s">
         <v>69</v>
@@ -21309,13 +21394,13 @@
         <v>75</v>
       </c>
       <c r="S97" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T97" t="s">
         <v>77</v>
       </c>
       <c r="U97" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V97" t="s">
         <v>79</v>
@@ -21324,7 +21409,7 @@
         <v>80</v>
       </c>
       <c r="X97" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="Y97" t="s">
         <v>89</v>
@@ -21343,7 +21428,7 @@
         <v>85</v>
       </c>
       <c r="AE97" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="AF97" t="s">
         <v>89</v>
@@ -21361,25 +21446,25 @@
         <v>90</v>
       </c>
       <c r="AK97" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="AL97" t="s">
         <v>288</v>
       </c>
       <c r="AM97" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN97" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="AO97" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="AP97" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="AQ97" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR97" t="s">
         <v>97</v>
@@ -21406,7 +21491,7 @@
         <v>89</v>
       </c>
       <c r="AZ97" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA97" t="s">
         <v>89</v>
@@ -21448,28 +21533,28 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>200789</v>
+        <v>200785</v>
       </c>
       <c r="B98" t="n">
-        <v>641537</v>
+        <v>533111</v>
       </c>
       <c r="C98" t="n">
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="E98" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F98" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G98" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H98" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I98" t="s">
         <v>69</v>
@@ -21502,13 +21587,13 @@
         <v>75</v>
       </c>
       <c r="S98" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T98" t="s">
         <v>77</v>
       </c>
       <c r="U98" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V98" t="s">
         <v>79</v>
@@ -21517,7 +21602,7 @@
         <v>80</v>
       </c>
       <c r="X98" t="s">
-        <v>81</v>
+        <v>808</v>
       </c>
       <c r="Y98" t="s">
         <v>89</v>
@@ -21536,7 +21621,7 @@
         <v>85</v>
       </c>
       <c r="AE98" t="s">
-        <v>86</v>
+        <v>809</v>
       </c>
       <c r="AF98" t="s">
         <v>89</v>
@@ -21554,25 +21639,25 @@
         <v>90</v>
       </c>
       <c r="AK98" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="AL98" t="s">
         <v>288</v>
       </c>
       <c r="AM98" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN98" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="AO98" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="AP98" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="AQ98" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR98" t="s">
         <v>97</v>
@@ -21599,7 +21684,7 @@
         <v>89</v>
       </c>
       <c r="AZ98" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA98" t="s">
         <v>89</v>
@@ -21641,28 +21726,28 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>200790</v>
+        <v>200786</v>
       </c>
       <c r="B99" t="n">
-        <v>588076</v>
+        <v>427691</v>
       </c>
       <c r="C99" t="n">
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="E99" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F99" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G99" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H99" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I99" t="s">
         <v>69</v>
@@ -21695,13 +21780,13 @@
         <v>75</v>
       </c>
       <c r="S99" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T99" t="s">
         <v>77</v>
       </c>
       <c r="U99" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V99" t="s">
         <v>79</v>
@@ -21710,7 +21795,7 @@
         <v>80</v>
       </c>
       <c r="X99" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="Y99" t="s">
         <v>89</v>
@@ -21729,7 +21814,7 @@
         <v>85</v>
       </c>
       <c r="AE99" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="AF99" t="s">
         <v>89</v>
@@ -21747,25 +21832,25 @@
         <v>90</v>
       </c>
       <c r="AK99" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="AL99" t="s">
         <v>288</v>
       </c>
       <c r="AM99" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN99" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="AO99" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="AP99" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="AQ99" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR99" t="s">
         <v>97</v>
@@ -21792,7 +21877,7 @@
         <v>89</v>
       </c>
       <c r="AZ99" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA99" t="s">
         <v>89</v>
@@ -21834,28 +21919,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>200791</v>
+        <v>200789</v>
       </c>
       <c r="B100" t="n">
-        <v>481152</v>
+        <v>641537</v>
       </c>
       <c r="C100" t="n">
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E100" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F100" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G100" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H100" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I100" t="s">
         <v>69</v>
@@ -21888,13 +21973,13 @@
         <v>75</v>
       </c>
       <c r="S100" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T100" t="s">
         <v>77</v>
       </c>
       <c r="U100" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V100" t="s">
         <v>79</v>
@@ -21903,7 +21988,7 @@
         <v>80</v>
       </c>
       <c r="X100" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Y100" t="s">
         <v>89</v>
@@ -21922,7 +22007,7 @@
         <v>85</v>
       </c>
       <c r="AE100" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="AF100" t="s">
         <v>89</v>
@@ -21940,25 +22025,25 @@
         <v>90</v>
       </c>
       <c r="AK100" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="AL100" t="s">
         <v>288</v>
       </c>
       <c r="AM100" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN100" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="AO100" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="AP100" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="AQ100" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR100" t="s">
         <v>97</v>
@@ -21985,7 +22070,7 @@
         <v>89</v>
       </c>
       <c r="AZ100" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA100" t="s">
         <v>89</v>
@@ -22027,28 +22112,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>200792</v>
+        <v>200790</v>
       </c>
       <c r="B101" t="n">
-        <v>481152</v>
+        <v>588076</v>
       </c>
       <c r="C101" t="n">
         <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="E101" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F101" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G101" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="H101" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="I101" t="s">
         <v>69</v>
@@ -22081,13 +22166,13 @@
         <v>75</v>
       </c>
       <c r="S101" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="T101" t="s">
         <v>77</v>
       </c>
       <c r="U101" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="V101" t="s">
         <v>79</v>
@@ -22096,7 +22181,7 @@
         <v>80</v>
       </c>
       <c r="X101" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="Y101" t="s">
         <v>89</v>
@@ -22115,7 +22200,7 @@
         <v>85</v>
       </c>
       <c r="AE101" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="AF101" t="s">
         <v>89</v>
@@ -22133,25 +22218,25 @@
         <v>90</v>
       </c>
       <c r="AK101" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="AL101" t="s">
         <v>288</v>
       </c>
       <c r="AM101" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="AN101" t="s">
         <v>806</v>
       </c>
       <c r="AO101" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="AP101" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="AQ101" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="AR101" t="s">
         <v>97</v>
@@ -22178,7 +22263,7 @@
         <v>89</v>
       </c>
       <c r="AZ101" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="BA101" t="s">
         <v>89</v>
@@ -22220,26 +22305,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>203900</v>
+        <v>200791</v>
       </c>
       <c r="B102" t="n">
-        <v>272606</v>
-      </c>
-      <c r="C102"/>
+        <v>481152</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2018</v>
+      </c>
       <c r="D102" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="E102" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="F102" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="G102" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="H102" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="I102" t="s">
         <v>69</v>
@@ -22248,17 +22335,19 @@
         <v>70</v>
       </c>
       <c r="K102" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="L102" t="s">
         <v>72</v>
       </c>
-      <c r="M102"/>
+      <c r="M102" t="n">
+        <v>200379</v>
+      </c>
       <c r="N102" t="s">
         <v>114</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>43845</v>
+        <v>43769</v>
       </c>
       <c r="P102" t="n">
         <v>1</v>
@@ -22270,22 +22359,22 @@
         <v>75</v>
       </c>
       <c r="S102" t="s">
-        <v>320</v>
+        <v>788</v>
       </c>
       <c r="T102" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U102" t="s">
-        <v>321</v>
+        <v>789</v>
       </c>
       <c r="V102" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W102" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X102" t="s">
-        <v>517</v>
+        <v>297</v>
       </c>
       <c r="Y102" t="s">
         <v>89</v>
@@ -22298,13 +22387,13 @@
       </c>
       <c r="AB102"/>
       <c r="AC102" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AD102" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE102" t="s">
-        <v>518</v>
+        <v>299</v>
       </c>
       <c r="AF102" t="s">
         <v>89</v>
@@ -22316,31 +22405,31 @@
         <v>89</v>
       </c>
       <c r="AI102" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AJ102" t="s">
         <v>90</v>
       </c>
       <c r="AK102" t="s">
-        <v>321</v>
+        <v>801</v>
       </c>
       <c r="AL102" t="s">
         <v>288</v>
       </c>
       <c r="AM102" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="AN102" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="AO102" t="s">
-        <v>326</v>
+        <v>794</v>
       </c>
       <c r="AP102" t="s">
-        <v>327</v>
+        <v>795</v>
       </c>
       <c r="AQ102" t="s">
-        <v>328</v>
+        <v>796</v>
       </c>
       <c r="AR102" t="s">
         <v>97</v>
@@ -22358,7 +22447,7 @@
         <v>89</v>
       </c>
       <c r="AW102" t="n">
-        <v>109.47</v>
+        <v>0.9</v>
       </c>
       <c r="AX102" t="s">
         <v>89</v>
@@ -22367,7 +22456,7 @@
         <v>89</v>
       </c>
       <c r="AZ102" t="s">
-        <v>89</v>
+        <v>797</v>
       </c>
       <c r="BA102" t="s">
         <v>89</v>
@@ -22392,12 +22481,14 @@
         <v>89</v>
       </c>
       <c r="BI102" s="1" t="n">
-        <v>43796</v>
+        <v>43379</v>
       </c>
       <c r="BJ102" t="s">
         <v>101</v>
       </c>
-      <c r="BK102"/>
+      <c r="BK102" t="s">
+        <v>101</v>
+      </c>
       <c r="BL102" t="b">
         <v>0</v>
       </c>
@@ -22407,75 +22498,79 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>205782</v>
+        <v>200792</v>
       </c>
       <c r="B103" t="n">
-        <v>302419</v>
-      </c>
-      <c r="C103"/>
+        <v>481152</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2018</v>
+      </c>
       <c r="D103" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="E103" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
       <c r="F103" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
       <c r="G103" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="H103" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="I103" t="s">
         <v>69</v>
       </c>
       <c r="J103" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K103" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="L103" t="s">
         <v>72</v>
       </c>
-      <c r="M103"/>
+      <c r="M103" t="n">
+        <v>200379</v>
+      </c>
       <c r="N103" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>43888</v>
+        <v>43769</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="R103" t="s">
         <v>75</v>
       </c>
       <c r="S103" t="s">
-        <v>557</v>
+        <v>788</v>
       </c>
       <c r="T103" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U103" t="s">
-        <v>558</v>
+        <v>789</v>
       </c>
       <c r="V103" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W103" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X103" t="s">
-        <v>607</v>
+        <v>823</v>
       </c>
       <c r="Y103" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="Z103" t="s">
         <v>83</v>
@@ -22485,16 +22580,16 @@
       </c>
       <c r="AB103"/>
       <c r="AC103" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AD103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE103" t="s">
-        <v>608</v>
+        <v>824</v>
       </c>
       <c r="AF103" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="AG103" t="s">
         <v>88</v>
@@ -22503,31 +22598,31 @@
         <v>89</v>
       </c>
       <c r="AI103" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AJ103" t="s">
         <v>90</v>
       </c>
       <c r="AK103" t="s">
-        <v>558</v>
+        <v>801</v>
       </c>
       <c r="AL103" t="s">
         <v>288</v>
       </c>
       <c r="AM103" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="AN103" t="s">
-        <v>268</v>
+        <v>821</v>
       </c>
       <c r="AO103" t="s">
-        <v>89</v>
+        <v>794</v>
       </c>
       <c r="AP103" t="s">
-        <v>89</v>
+        <v>795</v>
       </c>
       <c r="AQ103" t="s">
-        <v>89</v>
+        <v>796</v>
       </c>
       <c r="AR103" t="s">
         <v>97</v>
@@ -22536,7 +22631,7 @@
         <v>98</v>
       </c>
       <c r="AT103" t="s">
-        <v>821</v>
+        <v>89</v>
       </c>
       <c r="AU103" t="s">
         <v>89</v>
@@ -22545,7 +22640,7 @@
         <v>89</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.992</v>
+        <v>0.9</v>
       </c>
       <c r="AX103" t="s">
         <v>89</v>
@@ -22554,7 +22649,7 @@
         <v>89</v>
       </c>
       <c r="AZ103" t="s">
-        <v>89</v>
+        <v>797</v>
       </c>
       <c r="BA103" t="s">
         <v>89</v>
@@ -22579,12 +22674,14 @@
         <v>89</v>
       </c>
       <c r="BI103" s="1" t="n">
-        <v>43853</v>
+        <v>43379</v>
       </c>
       <c r="BJ103" t="s">
         <v>101</v>
       </c>
-      <c r="BK103"/>
+      <c r="BK103" t="s">
+        <v>101</v>
+      </c>
       <c r="BL103" t="b">
         <v>0</v>
       </c>
@@ -22594,63 +22691,63 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>205783</v>
+        <v>201074</v>
       </c>
       <c r="B104" t="n">
-        <v>786642</v>
+        <v>68959</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E104" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="F104" t="s">
-        <v>823</v>
+        <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="H104" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="I104" t="s">
         <v>69</v>
       </c>
       <c r="J104" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K104" t="s">
-        <v>308</v>
+        <v>89</v>
       </c>
       <c r="L104" t="s">
         <v>72</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>43888</v>
+        <v>43773</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="R104" t="s">
         <v>75</v>
       </c>
       <c r="S104" t="s">
-        <v>557</v>
+        <v>828</v>
       </c>
       <c r="T104" t="s">
         <v>404</v>
       </c>
       <c r="U104" t="s">
-        <v>558</v>
+        <v>829</v>
       </c>
       <c r="V104" t="s">
         <v>544</v>
@@ -22659,10 +22756,10 @@
         <v>89</v>
       </c>
       <c r="X104" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Y104" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="Z104" t="s">
         <v>83</v>
@@ -22678,10 +22775,10 @@
         <v>89</v>
       </c>
       <c r="AE104" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="AF104" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="AG104" t="s">
         <v>88</v>
@@ -22696,17 +22793,15 @@
         <v>90</v>
       </c>
       <c r="AK104" t="s">
-        <v>558</v>
+        <v>133</v>
       </c>
       <c r="AL104" t="s">
         <v>288</v>
       </c>
       <c r="AM104" t="s">
-        <v>820</v>
-      </c>
-      <c r="AN104" t="s">
-        <v>825</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="AN104"/>
       <c r="AO104" t="s">
         <v>89</v>
       </c>
@@ -22723,7 +22818,7 @@
         <v>98</v>
       </c>
       <c r="AT104" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="AU104" t="s">
         <v>89</v>
@@ -22731,9 +22826,7 @@
       <c r="AV104" t="s">
         <v>89</v>
       </c>
-      <c r="AW104" t="n">
-        <v>0.992</v>
-      </c>
+      <c r="AW104"/>
       <c r="AX104" t="s">
         <v>89</v>
       </c>
@@ -22766,7 +22859,7 @@
         <v>89</v>
       </c>
       <c r="BI104" s="1" t="n">
-        <v>43853</v>
+        <v>43595</v>
       </c>
       <c r="BJ104" t="s">
         <v>101</v>
@@ -22781,72 +22874,72 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>215435</v>
+        <v>203900</v>
       </c>
       <c r="B105" t="n">
-        <v>1029693</v>
+        <v>272606</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E105" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F105" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="G105" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="H105" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="I105" t="s">
-        <v>831</v>
+        <v>69</v>
       </c>
       <c r="J105" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K105" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L105" t="s">
         <v>72</v>
       </c>
       <c r="M105"/>
       <c r="N105" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>44036</v>
+        <v>43845</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="R105" t="s">
         <v>75</v>
       </c>
       <c r="S105" t="s">
-        <v>557</v>
+        <v>320</v>
       </c>
       <c r="T105" t="s">
-        <v>832</v>
+        <v>404</v>
       </c>
       <c r="U105" t="s">
-        <v>558</v>
+        <v>321</v>
       </c>
       <c r="V105" t="s">
-        <v>833</v>
+        <v>544</v>
       </c>
       <c r="W105" t="s">
         <v>89</v>
       </c>
       <c r="X105" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="Y105" t="s">
         <v>89</v>
@@ -22859,13 +22952,13 @@
       </c>
       <c r="AB105"/>
       <c r="AC105" t="s">
-        <v>832</v>
+        <v>404</v>
       </c>
       <c r="AD105" t="s">
         <v>89</v>
       </c>
       <c r="AE105" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="AF105" t="s">
         <v>89</v>
@@ -22877,31 +22970,31 @@
         <v>89</v>
       </c>
       <c r="AI105" t="s">
-        <v>833</v>
+        <v>544</v>
       </c>
       <c r="AJ105" t="s">
         <v>90</v>
       </c>
       <c r="AK105" t="s">
-        <v>558</v>
+        <v>321</v>
       </c>
       <c r="AL105" t="s">
         <v>288</v>
       </c>
       <c r="AM105" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AN105" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AO105" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="AP105" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="AQ105" t="s">
-        <v>89</v>
+        <v>328</v>
       </c>
       <c r="AR105" t="s">
         <v>97</v>
@@ -22910,7 +23003,7 @@
         <v>98</v>
       </c>
       <c r="AT105" t="s">
-        <v>836</v>
+        <v>89</v>
       </c>
       <c r="AU105" t="s">
         <v>89</v>
@@ -22919,7 +23012,7 @@
         <v>89</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.969</v>
+        <v>109.47</v>
       </c>
       <c r="AX105" t="s">
         <v>89</v>
@@ -22953,7 +23046,7 @@
         <v>89</v>
       </c>
       <c r="BI105" s="1" t="n">
-        <v>43894</v>
+        <v>43796</v>
       </c>
       <c r="BJ105" t="s">
         <v>101</v>
@@ -22968,10 +23061,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>185787</v>
+        <v>205782</v>
       </c>
       <c r="B106" t="n">
-        <v>50000</v>
+        <v>302419</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
@@ -22981,10 +23074,10 @@
         <v>838</v>
       </c>
       <c r="F106" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G106" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H106" t="s">
         <v>838</v>
@@ -22996,7 +23089,7 @@
         <v>113</v>
       </c>
       <c r="K106" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="L106" t="s">
         <v>72</v>
@@ -23006,7 +23099,7 @@
         <v>73</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>43461</v>
+        <v>43888</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -23018,25 +23111,25 @@
         <v>75</v>
       </c>
       <c r="S106" t="s">
-        <v>840</v>
+        <v>557</v>
       </c>
       <c r="T106" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U106" t="s">
-        <v>841</v>
+        <v>558</v>
       </c>
       <c r="V106" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W106" t="s">
         <v>89</v>
       </c>
       <c r="X106" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="Y106" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="Z106" t="s">
         <v>83</v>
@@ -23046,16 +23139,16 @@
       </c>
       <c r="AB106"/>
       <c r="AC106" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AD106" t="s">
         <v>89</v>
       </c>
       <c r="AE106" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="AF106" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="AG106" t="s">
         <v>88</v>
@@ -23064,46 +23157,50 @@
         <v>89</v>
       </c>
       <c r="AI106" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AJ106" t="s">
         <v>90</v>
       </c>
       <c r="AK106" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM106" t="s">
         <v>841</v>
       </c>
-      <c r="AL106" t="s">
+      <c r="AN106" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR106" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS106" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT106" t="s">
         <v>842</v>
       </c>
-      <c r="AM106" t="s">
-        <v>843</v>
-      </c>
-      <c r="AN106"/>
-      <c r="AO106" t="s">
-        <v>844</v>
-      </c>
-      <c r="AP106" t="s">
-        <v>845</v>
-      </c>
-      <c r="AQ106" t="s">
-        <v>846</v>
-      </c>
-      <c r="AR106" t="s">
-        <v>592</v>
-      </c>
-      <c r="AS106" t="s">
-        <v>847</v>
-      </c>
-      <c r="AT106" t="s">
-        <v>89</v>
-      </c>
       <c r="AU106" t="s">
         <v>89</v>
       </c>
       <c r="AV106" t="s">
         <v>89</v>
       </c>
-      <c r="AW106"/>
+      <c r="AW106" t="n">
+        <v>0.992</v>
+      </c>
       <c r="AX106" t="s">
         <v>89</v>
       </c>
@@ -23136,12 +23233,14 @@
         <v>89</v>
       </c>
       <c r="BI106" s="1" t="n">
-        <v>43457</v>
-      </c>
-      <c r="BJ106"/>
+        <v>43853</v>
+      </c>
+      <c r="BJ106" t="s">
+        <v>101</v>
+      </c>
       <c r="BK106"/>
       <c r="BL106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM106" t="b">
         <v>0</v>
@@ -23149,35 +23248,35 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>185972</v>
+        <v>205783</v>
       </c>
       <c r="B107" t="n">
-        <v>29304</v>
+        <v>786642</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E107" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F107" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G107" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="H107" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="I107" t="s">
         <v>69</v>
       </c>
       <c r="J107" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="K107" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="L107" t="s">
         <v>72</v>
@@ -23187,37 +23286,37 @@
         <v>73</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>43467</v>
+        <v>43888</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="R107" t="s">
         <v>75</v>
       </c>
       <c r="S107" t="s">
-        <v>397</v>
+        <v>557</v>
       </c>
       <c r="T107" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U107" t="s">
-        <v>398</v>
+        <v>558</v>
       </c>
       <c r="V107" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W107" t="s">
         <v>89</v>
       </c>
       <c r="X107" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Y107" t="s">
-        <v>851</v>
+        <v>163</v>
       </c>
       <c r="Z107" t="s">
         <v>83</v>
@@ -23227,16 +23326,16 @@
       </c>
       <c r="AB107"/>
       <c r="AC107" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AD107" t="s">
         <v>89</v>
       </c>
       <c r="AE107" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="AF107" t="s">
-        <v>852</v>
+        <v>165</v>
       </c>
       <c r="AG107" t="s">
         <v>88</v>
@@ -23245,41 +23344,41 @@
         <v>89</v>
       </c>
       <c r="AI107" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AJ107" t="s">
         <v>90</v>
       </c>
       <c r="AK107" t="s">
-        <v>398</v>
+        <v>558</v>
       </c>
       <c r="AL107" t="s">
         <v>288</v>
       </c>
       <c r="AM107" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="AN107" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AO107" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="AP107" t="s">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="AQ107" t="s">
-        <v>406</v>
+        <v>89</v>
       </c>
       <c r="AR107" t="s">
-        <v>592</v>
+        <v>97</v>
       </c>
       <c r="AS107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT107" t="s">
         <v>847</v>
       </c>
-      <c r="AT107" t="s">
-        <v>855</v>
-      </c>
       <c r="AU107" t="s">
         <v>89</v>
       </c>
@@ -23287,7 +23386,7 @@
         <v>89</v>
       </c>
       <c r="AW107" t="n">
-        <v>1.365</v>
+        <v>0.992</v>
       </c>
       <c r="AX107" t="s">
         <v>89</v>
@@ -23321,12 +23420,14 @@
         <v>89</v>
       </c>
       <c r="BI107" s="1" t="n">
-        <v>43461</v>
-      </c>
-      <c r="BJ107"/>
+        <v>43853</v>
+      </c>
+      <c r="BJ107" t="s">
+        <v>101</v>
+      </c>
       <c r="BK107"/>
       <c r="BL107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM107" t="b">
         <v>0</v>
@@ -23334,75 +23435,75 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>188229</v>
+        <v>215435</v>
       </c>
       <c r="B108" t="n">
-        <v>179983</v>
+        <v>1029693</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E108" t="s">
-        <v>660</v>
+        <v>849</v>
       </c>
       <c r="F108" t="s">
-        <v>660</v>
+        <v>849</v>
       </c>
       <c r="G108" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H108" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="I108" t="s">
-        <v>69</v>
+        <v>852</v>
       </c>
       <c r="J108" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="K108" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L108" t="s">
         <v>72</v>
       </c>
       <c r="M108"/>
       <c r="N108" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>43538</v>
+        <v>44036</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="R108" t="s">
         <v>75</v>
       </c>
       <c r="S108" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="T108" t="s">
-        <v>404</v>
+        <v>853</v>
       </c>
       <c r="U108" t="s">
-        <v>321</v>
+        <v>558</v>
       </c>
       <c r="V108" t="s">
-        <v>544</v>
+        <v>854</v>
       </c>
       <c r="W108" t="s">
         <v>89</v>
       </c>
       <c r="X108" t="s">
-        <v>859</v>
+        <v>559</v>
       </c>
       <c r="Y108" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="Z108" t="s">
         <v>83</v>
@@ -23412,16 +23513,16 @@
       </c>
       <c r="AB108"/>
       <c r="AC108" t="s">
-        <v>404</v>
+        <v>853</v>
       </c>
       <c r="AD108" t="s">
         <v>89</v>
       </c>
       <c r="AE108" t="s">
-        <v>860</v>
+        <v>560</v>
       </c>
       <c r="AF108" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="AG108" t="s">
         <v>88</v>
@@ -23430,40 +23531,40 @@
         <v>89</v>
       </c>
       <c r="AI108" t="s">
-        <v>544</v>
+        <v>854</v>
       </c>
       <c r="AJ108" t="s">
         <v>90</v>
       </c>
       <c r="AK108" t="s">
-        <v>321</v>
+        <v>558</v>
       </c>
       <c r="AL108" t="s">
         <v>288</v>
       </c>
       <c r="AM108" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AN108" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AO108" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="AP108" t="s">
-        <v>327</v>
+        <v>89</v>
       </c>
       <c r="AQ108" t="s">
-        <v>328</v>
+        <v>89</v>
       </c>
       <c r="AR108" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AS108" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AT108" t="s">
-        <v>89</v>
+        <v>857</v>
       </c>
       <c r="AU108" t="s">
         <v>89</v>
@@ -23472,7 +23573,7 @@
         <v>89</v>
       </c>
       <c r="AW108" t="n">
-        <v>110.75</v>
+        <v>0.969</v>
       </c>
       <c r="AX108" t="s">
         <v>89</v>
@@ -23506,12 +23607,14 @@
         <v>89</v>
       </c>
       <c r="BI108" s="1" t="n">
-        <v>43518</v>
-      </c>
-      <c r="BJ108"/>
+        <v>43894</v>
+      </c>
+      <c r="BJ108" t="s">
+        <v>101</v>
+      </c>
       <c r="BK108"/>
       <c r="BL108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM108" t="b">
         <v>0</v>
@@ -23519,75 +23622,75 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>191130</v>
+        <v>185787</v>
       </c>
       <c r="B109" t="n">
-        <v>647948</v>
+        <v>50000</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E109" t="s">
-        <v>628</v>
+        <v>859</v>
       </c>
       <c r="F109" t="s">
-        <v>628</v>
+        <v>859</v>
       </c>
       <c r="G109" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="H109" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="I109" t="s">
         <v>69</v>
       </c>
       <c r="J109" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="K109" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="L109" t="s">
         <v>72</v>
       </c>
       <c r="M109"/>
       <c r="N109" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>43599</v>
+        <v>43461</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="R109" t="s">
         <v>75</v>
       </c>
       <c r="S109" t="s">
-        <v>262</v>
+        <v>861</v>
       </c>
       <c r="T109" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U109" t="s">
-        <v>263</v>
+        <v>862</v>
       </c>
       <c r="V109" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W109" t="s">
         <v>89</v>
       </c>
       <c r="X109" t="s">
-        <v>147</v>
+        <v>642</v>
       </c>
       <c r="Y109" t="s">
-        <v>866</v>
+        <v>89</v>
       </c>
       <c r="Z109" t="s">
         <v>83</v>
@@ -23597,16 +23700,16 @@
       </c>
       <c r="AB109"/>
       <c r="AC109" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AD109" t="s">
         <v>89</v>
       </c>
       <c r="AE109" t="s">
-        <v>149</v>
+        <v>643</v>
       </c>
       <c r="AF109" t="s">
-        <v>867</v>
+        <v>89</v>
       </c>
       <c r="AG109" t="s">
         <v>88</v>
@@ -23615,40 +23718,38 @@
         <v>89</v>
       </c>
       <c r="AI109" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AJ109" t="s">
         <v>90</v>
       </c>
       <c r="AK109" t="s">
-        <v>149</v>
+        <v>862</v>
       </c>
       <c r="AL109" t="s">
-        <v>288</v>
+        <v>863</v>
       </c>
       <c r="AM109" t="s">
+        <v>864</v>
+      </c>
+      <c r="AN109"/>
+      <c r="AO109" t="s">
+        <v>865</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>866</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>867</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS109" t="s">
         <v>868</v>
       </c>
-      <c r="AN109" t="s">
-        <v>869</v>
-      </c>
-      <c r="AO109" t="s">
-        <v>269</v>
-      </c>
-      <c r="AP109" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ109" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR109" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS109" t="s">
-        <v>89</v>
-      </c>
       <c r="AT109" t="s">
-        <v>870</v>
+        <v>89</v>
       </c>
       <c r="AU109" t="s">
         <v>89</v>
@@ -23656,9 +23757,7 @@
       <c r="AV109" t="s">
         <v>89</v>
       </c>
-      <c r="AW109" t="n">
-        <v>1.389</v>
-      </c>
+      <c r="AW109"/>
       <c r="AX109" t="s">
         <v>89</v>
       </c>
@@ -23666,7 +23765,7 @@
         <v>89</v>
       </c>
       <c r="AZ109" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA109" t="s">
         <v>89</v>
@@ -23691,7 +23790,7 @@
         <v>89</v>
       </c>
       <c r="BI109" s="1" t="n">
-        <v>43515</v>
+        <v>43457</v>
       </c>
       <c r="BJ109"/>
       <c r="BK109"/>
@@ -23704,26 +23803,26 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>191364</v>
+        <v>185972</v>
       </c>
       <c r="B110" t="n">
-        <v>35860</v>
+        <v>29304</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="s">
+        <v>869</v>
+      </c>
+      <c r="E110" t="s">
+        <v>870</v>
+      </c>
+      <c r="F110" t="s">
+        <v>870</v>
+      </c>
+      <c r="G110" t="s">
         <v>871</v>
       </c>
-      <c r="E110" t="s">
-        <v>682</v>
-      </c>
-      <c r="F110" t="s">
-        <v>682</v>
-      </c>
-      <c r="G110" t="s">
-        <v>872</v>
-      </c>
       <c r="H110" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I110" t="s">
         <v>69</v>
@@ -23732,17 +23831,17 @@
         <v>70</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="L110" t="s">
         <v>72</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>43605</v>
+        <v>43467</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -23754,25 +23853,25 @@
         <v>75</v>
       </c>
       <c r="S110" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="T110" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U110" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="V110" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W110" t="s">
         <v>89</v>
       </c>
       <c r="X110" t="s">
-        <v>874</v>
+        <v>250</v>
       </c>
       <c r="Y110" t="s">
-        <v>89</v>
+        <v>872</v>
       </c>
       <c r="Z110" t="s">
         <v>83</v>
@@ -23782,16 +23881,16 @@
       </c>
       <c r="AB110"/>
       <c r="AC110" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AD110" t="s">
         <v>89</v>
       </c>
       <c r="AE110" t="s">
-        <v>875</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s">
-        <v>89</v>
+        <v>873</v>
       </c>
       <c r="AG110" t="s">
         <v>88</v>
@@ -23800,41 +23899,41 @@
         <v>89</v>
       </c>
       <c r="AI110" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AJ110" t="s">
         <v>90</v>
       </c>
       <c r="AK110" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="AL110" t="s">
         <v>288</v>
       </c>
       <c r="AM110" t="s">
+        <v>874</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>875</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>404</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>405</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>406</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS110" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT110" t="s">
         <v>876</v>
       </c>
-      <c r="AN110" t="s">
-        <v>877</v>
-      </c>
-      <c r="AO110" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP110" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ110" t="s">
-        <v>328</v>
-      </c>
-      <c r="AR110" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS110" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT110" t="s">
-        <v>89</v>
-      </c>
       <c r="AU110" t="s">
         <v>89</v>
       </c>
@@ -23842,7 +23941,7 @@
         <v>89</v>
       </c>
       <c r="AW110" t="n">
-        <v>110.8</v>
+        <v>1.365</v>
       </c>
       <c r="AX110" t="s">
         <v>89</v>
@@ -23851,7 +23950,7 @@
         <v>89</v>
       </c>
       <c r="AZ110" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA110" t="s">
         <v>89</v>
@@ -23876,7 +23975,7 @@
         <v>89</v>
       </c>
       <c r="BI110" s="1" t="n">
-        <v>43546</v>
+        <v>43461</v>
       </c>
       <c r="BJ110"/>
       <c r="BK110"/>
@@ -23889,28 +23988,26 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>191710</v>
+        <v>188229</v>
       </c>
       <c r="B111" t="n">
-        <v>677821</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2019</v>
-      </c>
+        <v>179983</v>
+      </c>
+      <c r="C111"/>
       <c r="D111" t="s">
+        <v>877</v>
+      </c>
+      <c r="E111" t="s">
+        <v>660</v>
+      </c>
+      <c r="F111" t="s">
+        <v>660</v>
+      </c>
+      <c r="G111" t="s">
         <v>878</v>
       </c>
-      <c r="E111" t="s">
-        <v>537</v>
-      </c>
-      <c r="F111" t="s">
-        <v>537</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>879</v>
-      </c>
-      <c r="H111" t="s">
-        <v>880</v>
       </c>
       <c r="I111" t="s">
         <v>69</v>
@@ -23929,7 +24026,7 @@
         <v>114</v>
       </c>
       <c r="O111" s="1" t="n">
-        <v>43607</v>
+        <v>43538</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -23956,7 +24053,7 @@
         <v>89</v>
       </c>
       <c r="X111" t="s">
-        <v>331</v>
+        <v>880</v>
       </c>
       <c r="Y111" t="s">
         <v>220</v>
@@ -23975,7 +24072,7 @@
         <v>89</v>
       </c>
       <c r="AE111" t="s">
-        <v>333</v>
+        <v>881</v>
       </c>
       <c r="AF111" t="s">
         <v>222</v>
@@ -23999,10 +24096,10 @@
         <v>288</v>
       </c>
       <c r="AM111" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AN111" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AO111" t="s">
         <v>326</v>
@@ -24029,7 +24126,7 @@
         <v>89</v>
       </c>
       <c r="AW111" t="n">
-        <v>109.6</v>
+        <v>110.75</v>
       </c>
       <c r="AX111" t="s">
         <v>89</v>
@@ -24038,7 +24135,7 @@
         <v>89</v>
       </c>
       <c r="AZ111" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA111" t="s">
         <v>89</v>
@@ -24063,7 +24160,7 @@
         <v>89</v>
       </c>
       <c r="BI111" s="1" t="n">
-        <v>43497</v>
+        <v>43518</v>
       </c>
       <c r="BJ111"/>
       <c r="BK111"/>
@@ -24076,28 +24173,26 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>191712</v>
+        <v>191130</v>
       </c>
       <c r="B112" t="n">
-        <v>729103</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2019</v>
-      </c>
+        <v>647948</v>
+      </c>
+      <c r="C112"/>
       <c r="D112" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E112" t="s">
-        <v>537</v>
+        <v>628</v>
       </c>
       <c r="F112" t="s">
-        <v>537</v>
+        <v>628</v>
       </c>
       <c r="G112" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H112" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I112" t="s">
         <v>69</v>
@@ -24106,7 +24201,7 @@
         <v>70</v>
       </c>
       <c r="K112" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s">
         <v>72</v>
@@ -24116,7 +24211,7 @@
         <v>114</v>
       </c>
       <c r="O112" s="1" t="n">
-        <v>43607</v>
+        <v>43599</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -24128,13 +24223,13 @@
         <v>75</v>
       </c>
       <c r="S112" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="T112" t="s">
         <v>404</v>
       </c>
       <c r="U112" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="V112" t="s">
         <v>544</v>
@@ -24143,10 +24238,10 @@
         <v>89</v>
       </c>
       <c r="X112" t="s">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="Y112" t="s">
-        <v>139</v>
+        <v>887</v>
       </c>
       <c r="Z112" t="s">
         <v>83</v>
@@ -24162,10 +24257,10 @@
         <v>89</v>
       </c>
       <c r="AE112" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="AF112" t="s">
-        <v>140</v>
+        <v>888</v>
       </c>
       <c r="AG112" t="s">
         <v>88</v>
@@ -24180,25 +24275,25 @@
         <v>90</v>
       </c>
       <c r="AK112" t="s">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="AL112" t="s">
         <v>288</v>
       </c>
       <c r="AM112" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="AN112" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="AO112" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="AP112" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="AQ112" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="AR112" t="s">
         <v>89</v>
@@ -24207,7 +24302,7 @@
         <v>89</v>
       </c>
       <c r="AT112" t="s">
-        <v>89</v>
+        <v>891</v>
       </c>
       <c r="AU112" t="s">
         <v>89</v>
@@ -24216,7 +24311,7 @@
         <v>89</v>
       </c>
       <c r="AW112" t="n">
-        <v>109.6</v>
+        <v>1.389</v>
       </c>
       <c r="AX112" t="s">
         <v>89</v>
@@ -24250,7 +24345,7 @@
         <v>89</v>
       </c>
       <c r="BI112" s="1" t="n">
-        <v>43497</v>
+        <v>43515</v>
       </c>
       <c r="BJ112"/>
       <c r="BK112"/>
@@ -24263,26 +24358,26 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>195641</v>
+        <v>191364</v>
       </c>
       <c r="B113" t="n">
-        <v>1023192</v>
+        <v>35860</v>
       </c>
       <c r="C113"/>
       <c r="D113" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="E113" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="F113" t="s">
-        <v>887</v>
+        <v>689</v>
       </c>
       <c r="G113" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="H113" t="s">
-        <v>742</v>
+        <v>894</v>
       </c>
       <c r="I113" t="s">
         <v>69</v>
@@ -24291,7 +24386,7 @@
         <v>70</v>
       </c>
       <c r="K113" t="s">
-        <v>755</v>
+        <v>319</v>
       </c>
       <c r="L113" t="s">
         <v>72</v>
@@ -24301,7 +24396,7 @@
         <v>114</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>43664</v>
+        <v>43605</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -24313,13 +24408,13 @@
         <v>75</v>
       </c>
       <c r="S113" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
       <c r="T113" t="s">
         <v>404</v>
       </c>
       <c r="U113" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
       <c r="V113" t="s">
         <v>544</v>
@@ -24328,7 +24423,7 @@
         <v>89</v>
       </c>
       <c r="X113" t="s">
-        <v>250</v>
+        <v>895</v>
       </c>
       <c r="Y113" t="s">
         <v>89</v>
@@ -24347,7 +24442,7 @@
         <v>89</v>
       </c>
       <c r="AE113" t="s">
-        <v>252</v>
+        <v>896</v>
       </c>
       <c r="AF113" t="s">
         <v>89</v>
@@ -24365,31 +24460,31 @@
         <v>90</v>
       </c>
       <c r="AK113" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
       <c r="AL113" t="s">
         <v>288</v>
       </c>
       <c r="AM113" t="s">
-        <v>748</v>
+        <v>897</v>
       </c>
       <c r="AN113" t="s">
-        <v>511</v>
+        <v>898</v>
       </c>
       <c r="AO113" t="s">
-        <v>750</v>
+        <v>326</v>
       </c>
       <c r="AP113" t="s">
-        <v>751</v>
+        <v>327</v>
       </c>
       <c r="AQ113" t="s">
-        <v>752</v>
+        <v>328</v>
       </c>
       <c r="AR113" t="s">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="AS113" t="s">
-        <v>847</v>
+        <v>89</v>
       </c>
       <c r="AT113" t="s">
         <v>89</v>
@@ -24401,7 +24496,7 @@
         <v>89</v>
       </c>
       <c r="AW113" t="n">
-        <v>1.466</v>
+        <v>110.8</v>
       </c>
       <c r="AX113" t="s">
         <v>89</v>
@@ -24435,7 +24530,7 @@
         <v>89</v>
       </c>
       <c r="BI113" s="1" t="n">
-        <v>43496</v>
+        <v>43546</v>
       </c>
       <c r="BJ113"/>
       <c r="BK113"/>
@@ -24448,26 +24543,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>199385</v>
+        <v>191710</v>
       </c>
       <c r="B114" t="n">
-        <v>25868</v>
-      </c>
-      <c r="C114"/>
+        <v>677821</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2019</v>
+      </c>
       <c r="D114" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="E114" t="s">
-        <v>890</v>
+        <v>537</v>
       </c>
       <c r="F114" t="s">
-        <v>89</v>
+        <v>537</v>
       </c>
       <c r="G114" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="H114" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="I114" t="s">
         <v>69</v>
@@ -24476,17 +24573,17 @@
         <v>70</v>
       </c>
       <c r="K114" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="L114" t="s">
         <v>72</v>
       </c>
       <c r="M114"/>
       <c r="N114" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O114" s="1" t="n">
-        <v>43754</v>
+        <v>43607</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -24498,13 +24595,13 @@
         <v>75</v>
       </c>
       <c r="S114" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="T114" t="s">
         <v>404</v>
       </c>
       <c r="U114" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="V114" t="s">
         <v>544</v>
@@ -24513,10 +24610,10 @@
         <v>89</v>
       </c>
       <c r="X114" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="Y114" t="s">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="Z114" t="s">
         <v>83</v>
@@ -24532,10 +24629,10 @@
         <v>89</v>
       </c>
       <c r="AE114" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="AF114" t="s">
-        <v>469</v>
+        <v>222</v>
       </c>
       <c r="AG114" t="s">
         <v>88</v>
@@ -24550,23 +24647,25 @@
         <v>90</v>
       </c>
       <c r="AK114" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="AL114" t="s">
         <v>288</v>
       </c>
       <c r="AM114" t="s">
-        <v>893</v>
-      </c>
-      <c r="AN114"/>
+        <v>902</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>903</v>
+      </c>
       <c r="AO114" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AP114" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="AQ114" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="AR114" t="s">
         <v>89</v>
@@ -24583,7 +24682,9 @@
       <c r="AV114" t="s">
         <v>89</v>
       </c>
-      <c r="AW114"/>
+      <c r="AW114" t="n">
+        <v>109.6</v>
+      </c>
       <c r="AX114" t="s">
         <v>89</v>
       </c>
@@ -24616,7 +24717,7 @@
         <v>89</v>
       </c>
       <c r="BI114" s="1" t="n">
-        <v>43738</v>
+        <v>43497</v>
       </c>
       <c r="BJ114"/>
       <c r="BK114"/>
@@ -24629,28 +24730,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>199668</v>
+        <v>191712</v>
       </c>
       <c r="B115" t="n">
-        <v>238265</v>
+        <v>729103</v>
       </c>
       <c r="C115" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D115" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="E115" t="s">
-        <v>895</v>
+        <v>537</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>537</v>
       </c>
       <c r="G115" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="H115" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="I115" t="s">
         <v>69</v>
@@ -24659,7 +24760,7 @@
         <v>70</v>
       </c>
       <c r="K115" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="L115" t="s">
         <v>72</v>
@@ -24669,7 +24770,7 @@
         <v>114</v>
       </c>
       <c r="O115" s="1" t="n">
-        <v>43759</v>
+        <v>43607</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -24681,25 +24782,25 @@
         <v>75</v>
       </c>
       <c r="S115" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="T115" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U115" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="V115" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W115" t="s">
         <v>89</v>
       </c>
       <c r="X115" t="s">
-        <v>897</v>
+        <v>331</v>
       </c>
       <c r="Y115" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="Z115" t="s">
         <v>83</v>
@@ -24715,10 +24816,10 @@
         <v>89</v>
       </c>
       <c r="AE115" t="s">
-        <v>898</v>
+        <v>333</v>
       </c>
       <c r="AF115" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="AG115" t="s">
         <v>88</v>
@@ -24733,31 +24834,31 @@
         <v>90</v>
       </c>
       <c r="AK115" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="AL115" t="s">
         <v>288</v>
       </c>
       <c r="AM115" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="AN115" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="AO115" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="AP115" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="AQ115" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="AR115" t="s">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="AS115" t="s">
-        <v>847</v>
+        <v>89</v>
       </c>
       <c r="AT115" t="s">
         <v>89</v>
@@ -24769,7 +24870,7 @@
         <v>89</v>
       </c>
       <c r="AW115" t="n">
-        <v>1.406</v>
+        <v>109.6</v>
       </c>
       <c r="AX115" t="s">
         <v>89</v>
@@ -24778,7 +24879,7 @@
         <v>89</v>
       </c>
       <c r="AZ115" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA115" t="s">
         <v>89</v>
@@ -24803,7 +24904,7 @@
         <v>89</v>
       </c>
       <c r="BI115" s="1" t="n">
-        <v>43374</v>
+        <v>43497</v>
       </c>
       <c r="BJ115"/>
       <c r="BK115"/>
@@ -24816,28 +24917,26 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>199669</v>
+        <v>194303</v>
       </c>
       <c r="B116" t="n">
-        <v>46230</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2018</v>
-      </c>
+        <v>691085</v>
+      </c>
+      <c r="C116"/>
       <c r="D116" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E116" t="s">
-        <v>895</v>
+        <v>104</v>
       </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="H116" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="I116" t="s">
         <v>69</v>
@@ -24856,7 +24955,7 @@
         <v>114</v>
       </c>
       <c r="O116" s="1" t="n">
-        <v>43759</v>
+        <v>43641</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -24883,10 +24982,10 @@
         <v>89</v>
       </c>
       <c r="X116" t="s">
-        <v>897</v>
+        <v>171</v>
       </c>
       <c r="Y116" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Z116" t="s">
         <v>83</v>
@@ -24902,10 +25001,10 @@
         <v>89</v>
       </c>
       <c r="AE116" t="s">
-        <v>898</v>
+        <v>173</v>
       </c>
       <c r="AF116" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AG116" t="s">
         <v>88</v>
@@ -24926,10 +25025,10 @@
         <v>288</v>
       </c>
       <c r="AM116" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AN116" t="s">
-        <v>902</v>
+        <v>230</v>
       </c>
       <c r="AO116" t="s">
         <v>269</v>
@@ -24941,10 +25040,10 @@
         <v>271</v>
       </c>
       <c r="AR116" t="s">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="AS116" t="s">
-        <v>847</v>
+        <v>89</v>
       </c>
       <c r="AT116" t="s">
         <v>89</v>
@@ -24956,7 +25055,7 @@
         <v>89</v>
       </c>
       <c r="AW116" t="n">
-        <v>1.406</v>
+        <v>1.447</v>
       </c>
       <c r="AX116" t="s">
         <v>89</v>
@@ -24965,7 +25064,7 @@
         <v>89</v>
       </c>
       <c r="AZ116" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA116" t="s">
         <v>89</v>
@@ -24990,7 +25089,7 @@
         <v>89</v>
       </c>
       <c r="BI116" s="1" t="n">
-        <v>43374</v>
+        <v>43376</v>
       </c>
       <c r="BJ116"/>
       <c r="BK116"/>
@@ -25003,28 +25102,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>199670</v>
+        <v>194822</v>
       </c>
       <c r="B117" t="n">
-        <v>117346</v>
+        <v>744696</v>
       </c>
       <c r="C117" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D117" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="E117" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="H117" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="I117" t="s">
         <v>69</v>
@@ -25033,7 +25132,7 @@
         <v>70</v>
       </c>
       <c r="K117" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="L117" t="s">
         <v>72</v>
@@ -25043,7 +25142,7 @@
         <v>114</v>
       </c>
       <c r="O117" s="1" t="n">
-        <v>43759</v>
+        <v>43648</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -25055,25 +25154,25 @@
         <v>75</v>
       </c>
       <c r="S117" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="T117" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U117" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="V117" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W117" t="s">
         <v>89</v>
       </c>
       <c r="X117" t="s">
-        <v>904</v>
+        <v>331</v>
       </c>
       <c r="Y117" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="Z117" t="s">
         <v>83</v>
@@ -25089,10 +25188,10 @@
         <v>89</v>
       </c>
       <c r="AE117" t="s">
-        <v>905</v>
+        <v>333</v>
       </c>
       <c r="AF117" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AG117" t="s">
         <v>88</v>
@@ -25107,31 +25206,31 @@
         <v>90</v>
       </c>
       <c r="AK117" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="AL117" t="s">
         <v>288</v>
       </c>
       <c r="AM117" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="AN117" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="AO117" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="AP117" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="AQ117" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="AR117" t="s">
         <v>592</v>
       </c>
       <c r="AS117" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AT117" t="s">
         <v>89</v>
@@ -25143,7 +25242,7 @@
         <v>89</v>
       </c>
       <c r="AW117" t="n">
-        <v>1.406</v>
+        <v>107.82</v>
       </c>
       <c r="AX117" t="s">
         <v>89</v>
@@ -25152,7 +25251,7 @@
         <v>89</v>
       </c>
       <c r="AZ117" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA117" t="s">
         <v>89</v>
@@ -25177,7 +25276,7 @@
         <v>89</v>
       </c>
       <c r="BI117" s="1" t="n">
-        <v>43374</v>
+        <v>43642</v>
       </c>
       <c r="BJ117"/>
       <c r="BK117"/>
@@ -25190,28 +25289,26 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>199671</v>
+        <v>194823</v>
       </c>
       <c r="B118" t="n">
-        <v>55824</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2018</v>
-      </c>
+        <v>731065</v>
+      </c>
+      <c r="C118"/>
       <c r="D118" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="E118" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="H118" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="I118" t="s">
         <v>69</v>
@@ -25220,7 +25317,7 @@
         <v>70</v>
       </c>
       <c r="K118" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="L118" t="s">
         <v>72</v>
@@ -25230,7 +25327,7 @@
         <v>114</v>
       </c>
       <c r="O118" s="1" t="n">
-        <v>43759</v>
+        <v>43648</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -25242,25 +25339,25 @@
         <v>75</v>
       </c>
       <c r="S118" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="T118" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U118" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="V118" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W118" t="s">
         <v>89</v>
       </c>
       <c r="X118" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="Y118" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="Z118" t="s">
         <v>83</v>
@@ -25276,10 +25373,10 @@
         <v>89</v>
       </c>
       <c r="AE118" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="AF118" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AG118" t="s">
         <v>88</v>
@@ -25294,31 +25391,31 @@
         <v>90</v>
       </c>
       <c r="AK118" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="AL118" t="s">
         <v>288</v>
       </c>
       <c r="AM118" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="AN118" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="AO118" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="AP118" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="AQ118" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="AR118" t="s">
         <v>592</v>
       </c>
       <c r="AS118" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AT118" t="s">
         <v>89</v>
@@ -25330,7 +25427,7 @@
         <v>89</v>
       </c>
       <c r="AW118" t="n">
-        <v>1.406</v>
+        <v>107.82</v>
       </c>
       <c r="AX118" t="s">
         <v>89</v>
@@ -25364,7 +25461,7 @@
         <v>89</v>
       </c>
       <c r="BI118" s="1" t="n">
-        <v>43374</v>
+        <v>43642</v>
       </c>
       <c r="BJ118"/>
       <c r="BK118"/>
@@ -25377,28 +25474,28 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>199672</v>
+        <v>194824</v>
       </c>
       <c r="B119" t="n">
-        <v>77441</v>
+        <v>421069</v>
       </c>
       <c r="C119" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D119" t="s">
+        <v>919</v>
+      </c>
+      <c r="E119" t="s">
         <v>911</v>
       </c>
-      <c r="E119" t="s">
-        <v>895</v>
-      </c>
       <c r="F119" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G119" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="H119" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="I119" t="s">
         <v>69</v>
@@ -25407,7 +25504,7 @@
         <v>70</v>
       </c>
       <c r="K119" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="L119" t="s">
         <v>72</v>
@@ -25417,7 +25514,7 @@
         <v>114</v>
       </c>
       <c r="O119" s="1" t="n">
-        <v>43759</v>
+        <v>43648</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -25429,25 +25526,25 @@
         <v>75</v>
       </c>
       <c r="S119" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="T119" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U119" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="V119" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W119" t="s">
         <v>89</v>
       </c>
       <c r="X119" t="s">
-        <v>908</v>
+        <v>322</v>
       </c>
       <c r="Y119" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="Z119" t="s">
         <v>83</v>
@@ -25463,10 +25560,10 @@
         <v>89</v>
       </c>
       <c r="AE119" t="s">
-        <v>909</v>
+        <v>323</v>
       </c>
       <c r="AF119" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AG119" t="s">
         <v>88</v>
@@ -25481,31 +25578,31 @@
         <v>90</v>
       </c>
       <c r="AK119" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="AL119" t="s">
         <v>288</v>
       </c>
       <c r="AM119" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="AN119" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="AO119" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="AP119" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="AQ119" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="AR119" t="s">
         <v>592</v>
       </c>
       <c r="AS119" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AT119" t="s">
         <v>89</v>
@@ -25517,7 +25614,7 @@
         <v>89</v>
       </c>
       <c r="AW119" t="n">
-        <v>1.406</v>
+        <v>107.82</v>
       </c>
       <c r="AX119" t="s">
         <v>89</v>
@@ -25526,7 +25623,7 @@
         <v>89</v>
       </c>
       <c r="AZ119" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA119" t="s">
         <v>89</v>
@@ -25551,7 +25648,7 @@
         <v>89</v>
       </c>
       <c r="BI119" s="1" t="n">
-        <v>43374</v>
+        <v>43642</v>
       </c>
       <c r="BJ119"/>
       <c r="BK119"/>
@@ -25564,28 +25661,26 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>199673</v>
+        <v>195641</v>
       </c>
       <c r="B120" t="n">
-        <v>347273</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2018</v>
-      </c>
+        <v>1023192</v>
+      </c>
+      <c r="C120"/>
       <c r="D120" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="E120" t="s">
-        <v>895</v>
+        <v>749</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>922</v>
       </c>
       <c r="G120" t="s">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="H120" t="s">
-        <v>895</v>
+        <v>749</v>
       </c>
       <c r="I120" t="s">
         <v>69</v>
@@ -25594,7 +25689,7 @@
         <v>70</v>
       </c>
       <c r="K120" t="s">
-        <v>261</v>
+        <v>762</v>
       </c>
       <c r="L120" t="s">
         <v>72</v>
@@ -25604,7 +25699,7 @@
         <v>114</v>
       </c>
       <c r="O120" s="1" t="n">
-        <v>43759</v>
+        <v>43664</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -25616,22 +25711,22 @@
         <v>75</v>
       </c>
       <c r="S120" t="s">
-        <v>262</v>
+        <v>753</v>
       </c>
       <c r="T120" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U120" t="s">
-        <v>263</v>
+        <v>754</v>
       </c>
       <c r="V120" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W120" t="s">
         <v>89</v>
       </c>
       <c r="X120" t="s">
-        <v>914</v>
+        <v>250</v>
       </c>
       <c r="Y120" t="s">
         <v>89</v>
@@ -25650,7 +25745,7 @@
         <v>89</v>
       </c>
       <c r="AE120" t="s">
-        <v>915</v>
+        <v>252</v>
       </c>
       <c r="AF120" t="s">
         <v>89</v>
@@ -25668,31 +25763,31 @@
         <v>90</v>
       </c>
       <c r="AK120" t="s">
-        <v>263</v>
+        <v>754</v>
       </c>
       <c r="AL120" t="s">
         <v>288</v>
       </c>
       <c r="AM120" t="s">
-        <v>899</v>
+        <v>755</v>
       </c>
       <c r="AN120" t="s">
-        <v>916</v>
+        <v>511</v>
       </c>
       <c r="AO120" t="s">
-        <v>269</v>
+        <v>757</v>
       </c>
       <c r="AP120" t="s">
-        <v>270</v>
+        <v>758</v>
       </c>
       <c r="AQ120" t="s">
-        <v>271</v>
+        <v>759</v>
       </c>
       <c r="AR120" t="s">
         <v>592</v>
       </c>
       <c r="AS120" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AT120" t="s">
         <v>89</v>
@@ -25704,7 +25799,7 @@
         <v>89</v>
       </c>
       <c r="AW120" t="n">
-        <v>1.406</v>
+        <v>1.466</v>
       </c>
       <c r="AX120" t="s">
         <v>89</v>
@@ -25713,7 +25808,7 @@
         <v>89</v>
       </c>
       <c r="AZ120" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA120" t="s">
         <v>89</v>
@@ -25738,7 +25833,7 @@
         <v>89</v>
       </c>
       <c r="BI120" s="1" t="n">
-        <v>43374</v>
+        <v>43496</v>
       </c>
       <c r="BJ120"/>
       <c r="BK120"/>
@@ -25751,28 +25846,26 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>199674</v>
+        <v>199385</v>
       </c>
       <c r="B121" t="n">
-        <v>220484</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2018</v>
-      </c>
+        <v>25868</v>
+      </c>
+      <c r="C121"/>
       <c r="D121" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="E121" t="s">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G121" t="s">
-        <v>896</v>
+        <v>926</v>
       </c>
       <c r="H121" t="s">
-        <v>895</v>
+        <v>927</v>
       </c>
       <c r="I121" t="s">
         <v>69</v>
@@ -25781,17 +25874,17 @@
         <v>70</v>
       </c>
       <c r="K121" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="L121" t="s">
         <v>72</v>
       </c>
       <c r="M121"/>
       <c r="N121" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O121" s="1" t="n">
-        <v>43759</v>
+        <v>43754</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -25803,25 +25896,25 @@
         <v>75</v>
       </c>
       <c r="S121" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="T121" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="U121" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="V121" t="s">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="W121" t="s">
         <v>89</v>
       </c>
       <c r="X121" t="s">
-        <v>918</v>
+        <v>89</v>
       </c>
       <c r="Y121" t="s">
-        <v>89</v>
+        <v>467</v>
       </c>
       <c r="Z121" t="s">
         <v>83</v>
@@ -25837,10 +25930,10 @@
         <v>89</v>
       </c>
       <c r="AE121" t="s">
-        <v>919</v>
+        <v>89</v>
       </c>
       <c r="AF121" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="AG121" t="s">
         <v>88</v>
@@ -25855,31 +25948,29 @@
         <v>90</v>
       </c>
       <c r="AK121" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="AL121" t="s">
         <v>288</v>
       </c>
       <c r="AM121" t="s">
-        <v>899</v>
-      </c>
-      <c r="AN121" t="s">
-        <v>920</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="AN121"/>
       <c r="AO121" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="AP121" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="AQ121" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="AR121" t="s">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="AS121" t="s">
-        <v>847</v>
+        <v>89</v>
       </c>
       <c r="AT121" t="s">
         <v>89</v>
@@ -25890,9 +25981,7 @@
       <c r="AV121" t="s">
         <v>89</v>
       </c>
-      <c r="AW121" t="n">
-        <v>1.406</v>
-      </c>
+      <c r="AW121"/>
       <c r="AX121" t="s">
         <v>89</v>
       </c>
@@ -25900,7 +25989,7 @@
         <v>89</v>
       </c>
       <c r="AZ121" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="BA121" t="s">
         <v>89</v>
@@ -25925,7 +26014,7 @@
         <v>89</v>
       </c>
       <c r="BI121" s="1" t="n">
-        <v>43374</v>
+        <v>43738</v>
       </c>
       <c r="BJ121"/>
       <c r="BK121"/>
@@ -25938,28 +26027,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>199675</v>
+        <v>199668</v>
       </c>
       <c r="B122" t="n">
-        <v>355619</v>
+        <v>238265</v>
       </c>
       <c r="C122" t="n">
         <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="E122" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
       <c r="F122" t="s">
         <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>896</v>
+        <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
       <c r="I122" t="s">
         <v>69</v>
@@ -26005,7 +26094,7 @@
         <v>89</v>
       </c>
       <c r="X122" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="Y122" t="s">
         <v>89</v>
@@ -26024,7 +26113,7 @@
         <v>89</v>
       </c>
       <c r="AE122" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="AF122" t="s">
         <v>89</v>
@@ -26048,10 +26137,10 @@
         <v>288</v>
       </c>
       <c r="AM122" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
       <c r="AN122" t="s">
-        <v>246</v>
+        <v>935</v>
       </c>
       <c r="AO122" t="s">
         <v>269</v>
@@ -26066,7 +26155,7 @@
         <v>592</v>
       </c>
       <c r="AS122" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AT122" t="s">
         <v>89</v>
@@ -26120,33 +26209,33 @@
         <v>1</v>
       </c>
       <c r="BM122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>199676</v>
+        <v>199669</v>
       </c>
       <c r="B123" t="n">
-        <v>1137980</v>
+        <v>46230</v>
       </c>
       <c r="C123" t="n">
         <v>2018</v>
       </c>
       <c r="D123" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="E123" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
       <c r="F123" t="s">
         <v>66</v>
       </c>
       <c r="G123" t="s">
-        <v>896</v>
+        <v>931</v>
       </c>
       <c r="H123" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
       <c r="I123" t="s">
         <v>69</v>
@@ -26192,7 +26281,7 @@
         <v>89</v>
       </c>
       <c r="X123" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="Y123" t="s">
         <v>89</v>
@@ -26211,7 +26300,7 @@
         <v>89</v>
       </c>
       <c r="AE123" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="AF123" t="s">
         <v>89</v>
@@ -26235,10 +26324,10 @@
         <v>288</v>
       </c>
       <c r="AM123" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
       <c r="AN123" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="AO123" t="s">
         <v>269</v>
@@ -26253,7 +26342,7 @@
         <v>592</v>
       </c>
       <c r="AS123" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AT123" t="s">
         <v>89</v>
@@ -26307,33 +26396,33 @@
         <v>1</v>
       </c>
       <c r="BM123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>203220</v>
+        <v>199670</v>
       </c>
       <c r="B124" t="n">
-        <v>110011</v>
+        <v>117346</v>
       </c>
       <c r="C124" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="E124" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F124" t="s">
-        <v>929</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
+        <v>931</v>
+      </c>
+      <c r="H124" t="s">
         <v>930</v>
-      </c>
-      <c r="H124" t="s">
-        <v>929</v>
       </c>
       <c r="I124" t="s">
         <v>69</v>
@@ -26342,19 +26431,17 @@
         <v>70</v>
       </c>
       <c r="K124" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="L124" t="s">
         <v>72</v>
       </c>
-      <c r="M124" t="n">
-        <v>203219</v>
-      </c>
+      <c r="M124"/>
       <c r="N124" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O124" s="1" t="n">
-        <v>43822</v>
+        <v>43759</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
@@ -26366,25 +26453,25 @@
         <v>75</v>
       </c>
       <c r="S124" t="s">
-        <v>931</v>
+        <v>262</v>
       </c>
       <c r="T124" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="U124" t="s">
-        <v>932</v>
+        <v>263</v>
       </c>
       <c r="V124" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="W124" t="s">
         <v>89</v>
       </c>
       <c r="X124" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="Y124" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="Z124" t="s">
         <v>83</v>
@@ -26400,10 +26487,10 @@
         <v>89</v>
       </c>
       <c r="AE124" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="AF124" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="AG124" t="s">
         <v>88</v>
@@ -26418,34 +26505,34 @@
         <v>90</v>
       </c>
       <c r="AK124" t="s">
-        <v>932</v>
+        <v>263</v>
       </c>
       <c r="AL124" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="AM124" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AN124" t="s">
-        <v>371</v>
+        <v>941</v>
       </c>
       <c r="AO124" t="s">
-        <v>936</v>
+        <v>269</v>
       </c>
       <c r="AP124" t="s">
-        <v>937</v>
+        <v>270</v>
       </c>
       <c r="AQ124" t="s">
-        <v>938</v>
+        <v>271</v>
       </c>
       <c r="AR124" t="s">
-        <v>89</v>
+        <v>592</v>
       </c>
       <c r="AS124" t="s">
-        <v>89</v>
+        <v>868</v>
       </c>
       <c r="AT124" t="s">
-        <v>939</v>
+        <v>89</v>
       </c>
       <c r="AU124" t="s">
         <v>89</v>
@@ -26454,7 +26541,7 @@
         <v>89</v>
       </c>
       <c r="AW124" t="n">
-        <v>0.909</v>
+        <v>1.406</v>
       </c>
       <c r="AX124" t="s">
         <v>89</v>
@@ -26463,7 +26550,7 @@
         <v>89</v>
       </c>
       <c r="AZ124" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA124" t="s">
         <v>89</v>
@@ -26488,7 +26575,7 @@
         <v>89</v>
       </c>
       <c r="BI124" s="1" t="n">
-        <v>43818</v>
+        <v>43374</v>
       </c>
       <c r="BJ124"/>
       <c r="BK124"/>
@@ -26501,28 +26588,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>203221</v>
+        <v>199671</v>
       </c>
       <c r="B125" t="n">
-        <v>109736</v>
+        <v>55824</v>
       </c>
       <c r="C125" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E125" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F125" t="s">
-        <v>929</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="H125" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I125" t="s">
         <v>69</v>
@@ -26531,19 +26618,17 @@
         <v>70</v>
       </c>
       <c r="K125" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="L125" t="s">
         <v>72</v>
       </c>
-      <c r="M125" t="n">
-        <v>203219</v>
-      </c>
+      <c r="M125"/>
       <c r="N125" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="O125" s="1" t="n">
-        <v>43822</v>
+        <v>43759</v>
       </c>
       <c r="P125" t="n">
         <v>1</v>
@@ -26555,25 +26640,25 @@
         <v>75</v>
       </c>
       <c r="S125" t="s">
-        <v>931</v>
+        <v>262</v>
       </c>
       <c r="T125" t="s">
-        <v>832</v>
+        <v>77</v>
       </c>
       <c r="U125" t="s">
-        <v>932</v>
+        <v>263</v>
       </c>
       <c r="V125" t="s">
-        <v>833</v>
+        <v>79</v>
       </c>
       <c r="W125" t="s">
         <v>89</v>
       </c>
       <c r="X125" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="Y125" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="Z125" t="s">
         <v>83</v>
@@ -26583,16 +26668,16 @@
       </c>
       <c r="AB125"/>
       <c r="AC125" t="s">
-        <v>832</v>
+        <v>404</v>
       </c>
       <c r="AD125" t="s">
         <v>89</v>
       </c>
       <c r="AE125" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="AF125" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="AG125" t="s">
         <v>88</v>
@@ -26601,40 +26686,40 @@
         <v>89</v>
       </c>
       <c r="AI125" t="s">
-        <v>833</v>
+        <v>544</v>
       </c>
       <c r="AJ125" t="s">
         <v>90</v>
       </c>
       <c r="AK125" t="s">
-        <v>932</v>
+        <v>263</v>
       </c>
       <c r="AL125" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="AM125" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AN125" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="AO125" t="s">
-        <v>936</v>
+        <v>269</v>
       </c>
       <c r="AP125" t="s">
-        <v>937</v>
+        <v>270</v>
       </c>
       <c r="AQ125" t="s">
-        <v>938</v>
+        <v>271</v>
       </c>
       <c r="AR125" t="s">
-        <v>89</v>
+        <v>592</v>
       </c>
       <c r="AS125" t="s">
-        <v>89</v>
+        <v>868</v>
       </c>
       <c r="AT125" t="s">
-        <v>939</v>
+        <v>89</v>
       </c>
       <c r="AU125" t="s">
         <v>89</v>
@@ -26643,7 +26728,7 @@
         <v>89</v>
       </c>
       <c r="AW125" t="n">
-        <v>0.909</v>
+        <v>1.406</v>
       </c>
       <c r="AX125" t="s">
         <v>89</v>
@@ -26652,7 +26737,7 @@
         <v>89</v>
       </c>
       <c r="AZ125" t="s">
-        <v>563</v>
+        <v>89</v>
       </c>
       <c r="BA125" t="s">
         <v>89</v>
@@ -26677,7 +26762,7 @@
         <v>89</v>
       </c>
       <c r="BI125" s="1" t="n">
-        <v>43818</v>
+        <v>43374</v>
       </c>
       <c r="BJ125"/>
       <c r="BK125"/>
@@ -26685,6 +26770,1319 @@
         <v>1</v>
       </c>
       <c r="BM125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>199672</v>
+      </c>
+      <c r="B126" t="n">
+        <v>77441</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D126" t="s">
+        <v>946</v>
+      </c>
+      <c r="E126" t="s">
+        <v>930</v>
+      </c>
+      <c r="F126" t="s">
+        <v>66</v>
+      </c>
+      <c r="G126" t="s">
+        <v>931</v>
+      </c>
+      <c r="H126" t="s">
+        <v>930</v>
+      </c>
+      <c r="I126" t="s">
+        <v>69</v>
+      </c>
+      <c r="J126" t="s">
+        <v>70</v>
+      </c>
+      <c r="K126" t="s">
+        <v>261</v>
+      </c>
+      <c r="L126" t="s">
+        <v>72</v>
+      </c>
+      <c r="M126"/>
+      <c r="N126" t="s">
+        <v>114</v>
+      </c>
+      <c r="O126" s="1" t="n">
+        <v>43759</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>74</v>
+      </c>
+      <c r="R126" t="s">
+        <v>75</v>
+      </c>
+      <c r="S126" t="s">
+        <v>262</v>
+      </c>
+      <c r="T126" t="s">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s">
+        <v>263</v>
+      </c>
+      <c r="V126" t="s">
+        <v>79</v>
+      </c>
+      <c r="W126" t="s">
+        <v>89</v>
+      </c>
+      <c r="X126" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB126"/>
+      <c r="AC126" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>944</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>947</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS126" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="AX126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC126"/>
+      <c r="BD126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH126" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI126" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="BJ126"/>
+      <c r="BK126"/>
+      <c r="BL126" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>199673</v>
+      </c>
+      <c r="B127" t="n">
+        <v>347273</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D127" t="s">
+        <v>948</v>
+      </c>
+      <c r="E127" t="s">
+        <v>930</v>
+      </c>
+      <c r="F127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G127" t="s">
+        <v>931</v>
+      </c>
+      <c r="H127" t="s">
+        <v>930</v>
+      </c>
+      <c r="I127" t="s">
+        <v>69</v>
+      </c>
+      <c r="J127" t="s">
+        <v>70</v>
+      </c>
+      <c r="K127" t="s">
+        <v>261</v>
+      </c>
+      <c r="L127" t="s">
+        <v>72</v>
+      </c>
+      <c r="M127"/>
+      <c r="N127" t="s">
+        <v>114</v>
+      </c>
+      <c r="O127" s="1" t="n">
+        <v>43759</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>74</v>
+      </c>
+      <c r="R127" t="s">
+        <v>75</v>
+      </c>
+      <c r="S127" t="s">
+        <v>262</v>
+      </c>
+      <c r="T127" t="s">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s">
+        <v>263</v>
+      </c>
+      <c r="V127" t="s">
+        <v>79</v>
+      </c>
+      <c r="W127" t="s">
+        <v>89</v>
+      </c>
+      <c r="X127" t="s">
+        <v>949</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB127"/>
+      <c r="AC127" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>950</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN127" t="s">
+        <v>951</v>
+      </c>
+      <c r="AO127" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS127" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="AX127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY127" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC127"/>
+      <c r="BD127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH127" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI127" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="BJ127"/>
+      <c r="BK127"/>
+      <c r="BL127" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>199674</v>
+      </c>
+      <c r="B128" t="n">
+        <v>220484</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D128" t="s">
+        <v>952</v>
+      </c>
+      <c r="E128" t="s">
+        <v>930</v>
+      </c>
+      <c r="F128" t="s">
+        <v>66</v>
+      </c>
+      <c r="G128" t="s">
+        <v>931</v>
+      </c>
+      <c r="H128" t="s">
+        <v>930</v>
+      </c>
+      <c r="I128" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128" t="s">
+        <v>70</v>
+      </c>
+      <c r="K128" t="s">
+        <v>261</v>
+      </c>
+      <c r="L128" t="s">
+        <v>72</v>
+      </c>
+      <c r="M128"/>
+      <c r="N128" t="s">
+        <v>114</v>
+      </c>
+      <c r="O128" s="1" t="n">
+        <v>43759</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>74</v>
+      </c>
+      <c r="R128" t="s">
+        <v>75</v>
+      </c>
+      <c r="S128" t="s">
+        <v>262</v>
+      </c>
+      <c r="T128" t="s">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s">
+        <v>263</v>
+      </c>
+      <c r="V128" t="s">
+        <v>79</v>
+      </c>
+      <c r="W128" t="s">
+        <v>89</v>
+      </c>
+      <c r="X128" t="s">
+        <v>953</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB128"/>
+      <c r="AC128" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>954</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>955</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS128" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="AX128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY128" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC128"/>
+      <c r="BD128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI128" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="BJ128"/>
+      <c r="BK128"/>
+      <c r="BL128" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>199675</v>
+      </c>
+      <c r="B129" t="n">
+        <v>355619</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D129" t="s">
+        <v>956</v>
+      </c>
+      <c r="E129" t="s">
+        <v>930</v>
+      </c>
+      <c r="F129" t="s">
+        <v>66</v>
+      </c>
+      <c r="G129" t="s">
+        <v>931</v>
+      </c>
+      <c r="H129" t="s">
+        <v>930</v>
+      </c>
+      <c r="I129" t="s">
+        <v>69</v>
+      </c>
+      <c r="J129" t="s">
+        <v>70</v>
+      </c>
+      <c r="K129" t="s">
+        <v>261</v>
+      </c>
+      <c r="L129" t="s">
+        <v>72</v>
+      </c>
+      <c r="M129"/>
+      <c r="N129" t="s">
+        <v>114</v>
+      </c>
+      <c r="O129" s="1" t="n">
+        <v>43759</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>74</v>
+      </c>
+      <c r="R129" t="s">
+        <v>75</v>
+      </c>
+      <c r="S129" t="s">
+        <v>262</v>
+      </c>
+      <c r="T129" t="s">
+        <v>77</v>
+      </c>
+      <c r="U129" t="s">
+        <v>263</v>
+      </c>
+      <c r="V129" t="s">
+        <v>79</v>
+      </c>
+      <c r="W129" t="s">
+        <v>89</v>
+      </c>
+      <c r="X129" t="s">
+        <v>957</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB129"/>
+      <c r="AC129" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>958</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN129" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO129" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP129" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ129" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR129" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS129" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="AX129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY129" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC129"/>
+      <c r="BD129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH129" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI129" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="BJ129"/>
+      <c r="BK129"/>
+      <c r="BL129" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>199676</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1137980</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D130" t="s">
+        <v>959</v>
+      </c>
+      <c r="E130" t="s">
+        <v>930</v>
+      </c>
+      <c r="F130" t="s">
+        <v>66</v>
+      </c>
+      <c r="G130" t="s">
+        <v>931</v>
+      </c>
+      <c r="H130" t="s">
+        <v>930</v>
+      </c>
+      <c r="I130" t="s">
+        <v>69</v>
+      </c>
+      <c r="J130" t="s">
+        <v>70</v>
+      </c>
+      <c r="K130" t="s">
+        <v>261</v>
+      </c>
+      <c r="L130" t="s">
+        <v>72</v>
+      </c>
+      <c r="M130"/>
+      <c r="N130" t="s">
+        <v>114</v>
+      </c>
+      <c r="O130" s="1" t="n">
+        <v>43759</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>74</v>
+      </c>
+      <c r="R130" t="s">
+        <v>75</v>
+      </c>
+      <c r="S130" t="s">
+        <v>262</v>
+      </c>
+      <c r="T130" t="s">
+        <v>77</v>
+      </c>
+      <c r="U130" t="s">
+        <v>263</v>
+      </c>
+      <c r="V130" t="s">
+        <v>79</v>
+      </c>
+      <c r="W130" t="s">
+        <v>89</v>
+      </c>
+      <c r="X130" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB130"/>
+      <c r="AC130" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>961</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN130" t="s">
+        <v>962</v>
+      </c>
+      <c r="AO130" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR130" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS130" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="AX130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC130"/>
+      <c r="BD130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH130" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI130" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="BJ130"/>
+      <c r="BK130"/>
+      <c r="BL130" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>203220</v>
+      </c>
+      <c r="B131" t="n">
+        <v>110011</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D131" t="s">
+        <v>963</v>
+      </c>
+      <c r="E131" t="s">
+        <v>964</v>
+      </c>
+      <c r="F131" t="s">
+        <v>964</v>
+      </c>
+      <c r="G131" t="s">
+        <v>965</v>
+      </c>
+      <c r="H131" t="s">
+        <v>964</v>
+      </c>
+      <c r="I131" t="s">
+        <v>69</v>
+      </c>
+      <c r="J131" t="s">
+        <v>70</v>
+      </c>
+      <c r="K131" t="s">
+        <v>185</v>
+      </c>
+      <c r="L131" t="s">
+        <v>72</v>
+      </c>
+      <c r="M131" t="n">
+        <v>203219</v>
+      </c>
+      <c r="N131" t="s">
+        <v>73</v>
+      </c>
+      <c r="O131" s="1" t="n">
+        <v>43822</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>74</v>
+      </c>
+      <c r="R131" t="s">
+        <v>75</v>
+      </c>
+      <c r="S131" t="s">
+        <v>966</v>
+      </c>
+      <c r="T131" t="s">
+        <v>404</v>
+      </c>
+      <c r="U131" t="s">
+        <v>967</v>
+      </c>
+      <c r="V131" t="s">
+        <v>544</v>
+      </c>
+      <c r="W131" t="s">
+        <v>89</v>
+      </c>
+      <c r="X131" t="s">
+        <v>968</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB131"/>
+      <c r="AC131" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>969</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>544</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>967</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>970</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO131" t="s">
+        <v>971</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>972</v>
+      </c>
+      <c r="AQ131" t="s">
+        <v>973</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>974</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="AX131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ131" t="s">
+        <v>563</v>
+      </c>
+      <c r="BA131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC131"/>
+      <c r="BD131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI131" s="1" t="n">
+        <v>43818</v>
+      </c>
+      <c r="BJ131"/>
+      <c r="BK131"/>
+      <c r="BL131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>203221</v>
+      </c>
+      <c r="B132" t="n">
+        <v>109736</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D132" t="s">
+        <v>975</v>
+      </c>
+      <c r="E132" t="s">
+        <v>964</v>
+      </c>
+      <c r="F132" t="s">
+        <v>964</v>
+      </c>
+      <c r="G132" t="s">
+        <v>976</v>
+      </c>
+      <c r="H132" t="s">
+        <v>964</v>
+      </c>
+      <c r="I132" t="s">
+        <v>69</v>
+      </c>
+      <c r="J132" t="s">
+        <v>70</v>
+      </c>
+      <c r="K132" t="s">
+        <v>185</v>
+      </c>
+      <c r="L132" t="s">
+        <v>72</v>
+      </c>
+      <c r="M132" t="n">
+        <v>203219</v>
+      </c>
+      <c r="N132" t="s">
+        <v>73</v>
+      </c>
+      <c r="O132" s="1" t="n">
+        <v>43822</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>74</v>
+      </c>
+      <c r="R132" t="s">
+        <v>75</v>
+      </c>
+      <c r="S132" t="s">
+        <v>966</v>
+      </c>
+      <c r="T132" t="s">
+        <v>853</v>
+      </c>
+      <c r="U132" t="s">
+        <v>967</v>
+      </c>
+      <c r="V132" t="s">
+        <v>854</v>
+      </c>
+      <c r="W132" t="s">
+        <v>89</v>
+      </c>
+      <c r="X132" t="s">
+        <v>968</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB132"/>
+      <c r="AC132" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>969</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>854</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK132" t="s">
+        <v>967</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>970</v>
+      </c>
+      <c r="AN132" t="s">
+        <v>977</v>
+      </c>
+      <c r="AO132" t="s">
+        <v>971</v>
+      </c>
+      <c r="AP132" t="s">
+        <v>972</v>
+      </c>
+      <c r="AQ132" t="s">
+        <v>973</v>
+      </c>
+      <c r="AR132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT132" t="s">
+        <v>974</v>
+      </c>
+      <c r="AU132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="AX132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY132" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ132" t="s">
+        <v>563</v>
+      </c>
+      <c r="BA132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC132"/>
+      <c r="BD132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH132" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI132" s="1" t="n">
+        <v>43818</v>
+      </c>
+      <c r="BJ132"/>
+      <c r="BK132"/>
+      <c r="BL132" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM132" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/Indonesia_unformatted.xlsx
+++ b/output/Indonesia_unformatted.xlsx
@@ -27518,7 +27518,7 @@
         <v>1</v>
       </c>
       <c r="BM129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -27705,7 +27705,7 @@
         <v>1</v>
       </c>
       <c r="BM130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
